--- a/Code_Smells.xlsx
+++ b/Code_Smells.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iscteiul365-my.sharepoint.com/personal/dfbcs_iscte-iul_pt/Documents/eclipse-workspace/ES-2Sem-2021-Grupo-5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{B5760989-AF68-4A21-B397-4D29D5B702E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4BE4A694-3531-4E2B-8548-C080771372D9}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{B5760989-AF68-4A21-B397-4D29D5B702E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CECACAAB-5218-465B-922D-3D33F97D3ACD}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00B73718-A218-4BB5-A155-7549172451AD}"/>
+    <workbookView xWindow="2610" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00B73718-A218-4BB5-A155-7549172451AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Code Smells" sheetId="8" r:id="rId1"/>
@@ -1339,12 +1339,13 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -2102,8 +2103,23 @@
       <c r="D22" t="s">
         <v>101</v>
       </c>
+      <c r="E22">
+        <v>29</v>
+      </c>
+      <c r="F22">
+        <v>1371</v>
+      </c>
+      <c r="G22">
+        <v>328</v>
+      </c>
       <c r="H22" t="b">
         <v>1</v>
+      </c>
+      <c r="I22">
+        <v>33</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -2122,8 +2138,23 @@
       <c r="D23" t="s">
         <v>102</v>
       </c>
+      <c r="E23">
+        <v>29</v>
+      </c>
+      <c r="F23">
+        <v>1371</v>
+      </c>
+      <c r="G23">
+        <v>328</v>
+      </c>
       <c r="H23" t="b">
         <v>1</v>
+      </c>
+      <c r="I23">
+        <v>33</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -2142,8 +2173,23 @@
       <c r="D24" t="s">
         <v>103</v>
       </c>
+      <c r="E24">
+        <v>29</v>
+      </c>
+      <c r="F24">
+        <v>1371</v>
+      </c>
+      <c r="G24">
+        <v>328</v>
+      </c>
       <c r="H24" t="b">
         <v>1</v>
+      </c>
+      <c r="I24">
+        <v>33</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -2162,8 +2208,23 @@
       <c r="D25" t="s">
         <v>104</v>
       </c>
+      <c r="E25">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <v>1371</v>
+      </c>
+      <c r="G25">
+        <v>328</v>
+      </c>
       <c r="H25" t="b">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>33</v>
+      </c>
+      <c r="J25">
+        <v>6</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -2182,8 +2243,23 @@
       <c r="D26" t="s">
         <v>105</v>
       </c>
+      <c r="E26">
+        <v>29</v>
+      </c>
+      <c r="F26">
+        <v>1371</v>
+      </c>
+      <c r="G26">
+        <v>328</v>
+      </c>
       <c r="H26" t="b">
         <v>1</v>
+      </c>
+      <c r="I26">
+        <v>33</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -2202,8 +2278,23 @@
       <c r="D27" t="s">
         <v>106</v>
       </c>
+      <c r="E27">
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>1371</v>
+      </c>
+      <c r="G27">
+        <v>328</v>
+      </c>
       <c r="H27" t="b">
         <v>1</v>
+      </c>
+      <c r="I27">
+        <v>33</v>
+      </c>
+      <c r="J27">
+        <v>6</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -2222,8 +2313,23 @@
       <c r="D28" t="s">
         <v>107</v>
       </c>
+      <c r="E28">
+        <v>29</v>
+      </c>
+      <c r="F28">
+        <v>1371</v>
+      </c>
+      <c r="G28">
+        <v>328</v>
+      </c>
       <c r="H28" t="b">
         <v>1</v>
+      </c>
+      <c r="I28">
+        <v>33</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
       </c>
       <c r="K28" t="b">
         <v>1</v>
@@ -2242,8 +2348,23 @@
       <c r="D29" t="s">
         <v>108</v>
       </c>
+      <c r="E29">
+        <v>29</v>
+      </c>
+      <c r="F29">
+        <v>1371</v>
+      </c>
+      <c r="G29">
+        <v>328</v>
+      </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29">
+        <v>33</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -2262,8 +2383,23 @@
       <c r="D30" t="s">
         <v>109</v>
       </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>1371</v>
+      </c>
+      <c r="G30">
+        <v>328</v>
+      </c>
       <c r="H30" t="b">
         <v>1</v>
+      </c>
+      <c r="I30">
+        <v>33</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -2282,8 +2418,23 @@
       <c r="D31" t="s">
         <v>110</v>
       </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <v>1371</v>
+      </c>
+      <c r="G31">
+        <v>328</v>
+      </c>
       <c r="H31" t="b">
         <v>1</v>
+      </c>
+      <c r="I31">
+        <v>33</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -2302,8 +2453,23 @@
       <c r="D32" t="s">
         <v>111</v>
       </c>
+      <c r="E32">
+        <v>29</v>
+      </c>
+      <c r="F32">
+        <v>1371</v>
+      </c>
+      <c r="G32">
+        <v>328</v>
+      </c>
       <c r="H32" t="b">
         <v>1</v>
+      </c>
+      <c r="I32">
+        <v>33</v>
+      </c>
+      <c r="J32">
+        <v>6</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -2322,8 +2488,23 @@
       <c r="D33" t="s">
         <v>112</v>
       </c>
+      <c r="E33">
+        <v>29</v>
+      </c>
+      <c r="F33">
+        <v>1371</v>
+      </c>
+      <c r="G33">
+        <v>328</v>
+      </c>
       <c r="H33" t="b">
         <v>1</v>
+      </c>
+      <c r="I33">
+        <v>33</v>
+      </c>
+      <c r="J33">
+        <v>6</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -2342,8 +2523,23 @@
       <c r="D34" t="s">
         <v>113</v>
       </c>
+      <c r="E34">
+        <v>29</v>
+      </c>
+      <c r="F34">
+        <v>1371</v>
+      </c>
+      <c r="G34">
+        <v>328</v>
+      </c>
       <c r="H34" t="b">
         <v>1</v>
+      </c>
+      <c r="I34">
+        <v>33</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -2362,8 +2558,23 @@
       <c r="D35" t="s">
         <v>114</v>
       </c>
+      <c r="E35">
+        <v>29</v>
+      </c>
+      <c r="F35">
+        <v>1371</v>
+      </c>
+      <c r="G35">
+        <v>328</v>
+      </c>
       <c r="H35" t="b">
         <v>1</v>
+      </c>
+      <c r="I35">
+        <v>33</v>
+      </c>
+      <c r="J35">
+        <v>6</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -2382,8 +2593,23 @@
       <c r="D36" t="s">
         <v>115</v>
       </c>
+      <c r="E36">
+        <v>29</v>
+      </c>
+      <c r="F36">
+        <v>1371</v>
+      </c>
+      <c r="G36">
+        <v>328</v>
+      </c>
       <c r="H36" t="b">
         <v>1</v>
+      </c>
+      <c r="I36">
+        <v>33</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -2402,8 +2628,23 @@
       <c r="D37" t="s">
         <v>116</v>
       </c>
+      <c r="E37">
+        <v>29</v>
+      </c>
+      <c r="F37">
+        <v>1371</v>
+      </c>
+      <c r="G37">
+        <v>328</v>
+      </c>
       <c r="H37" t="b">
         <v>1</v>
+      </c>
+      <c r="I37">
+        <v>33</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -2422,8 +2663,23 @@
       <c r="D38" t="s">
         <v>117</v>
       </c>
+      <c r="E38">
+        <v>29</v>
+      </c>
+      <c r="F38">
+        <v>1371</v>
+      </c>
+      <c r="G38">
+        <v>328</v>
+      </c>
       <c r="H38" t="b">
         <v>1</v>
+      </c>
+      <c r="I38">
+        <v>33</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -2442,8 +2698,23 @@
       <c r="D39" t="s">
         <v>118</v>
       </c>
+      <c r="E39">
+        <v>29</v>
+      </c>
+      <c r="F39">
+        <v>1371</v>
+      </c>
+      <c r="G39">
+        <v>328</v>
+      </c>
       <c r="H39" t="b">
         <v>1</v>
+      </c>
+      <c r="I39">
+        <v>33</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -2462,8 +2733,23 @@
       <c r="D40" t="s">
         <v>31</v>
       </c>
+      <c r="E40">
+        <v>29</v>
+      </c>
+      <c r="F40">
+        <v>1371</v>
+      </c>
+      <c r="G40">
+        <v>328</v>
+      </c>
       <c r="H40" t="b">
         <v>1</v>
+      </c>
+      <c r="I40">
+        <v>33</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -2482,8 +2768,23 @@
       <c r="D41" t="s">
         <v>119</v>
       </c>
+      <c r="E41">
+        <v>29</v>
+      </c>
+      <c r="F41">
+        <v>1371</v>
+      </c>
+      <c r="G41">
+        <v>328</v>
+      </c>
       <c r="H41" t="b">
         <v>0</v>
+      </c>
+      <c r="I41">
+        <v>33</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -2502,8 +2803,23 @@
       <c r="D42" t="s">
         <v>120</v>
       </c>
+      <c r="E42">
+        <v>29</v>
+      </c>
+      <c r="F42">
+        <v>1371</v>
+      </c>
+      <c r="G42">
+        <v>328</v>
+      </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42">
+        <v>33</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -2522,8 +2838,23 @@
       <c r="D43" t="s">
         <v>121</v>
       </c>
+      <c r="E43">
+        <v>29</v>
+      </c>
+      <c r="F43">
+        <v>1371</v>
+      </c>
+      <c r="G43">
+        <v>328</v>
+      </c>
       <c r="H43" t="b">
         <v>0</v>
+      </c>
+      <c r="I43">
+        <v>33</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -2542,8 +2873,23 @@
       <c r="D44" t="s">
         <v>122</v>
       </c>
+      <c r="E44">
+        <v>29</v>
+      </c>
+      <c r="F44">
+        <v>1371</v>
+      </c>
+      <c r="G44">
+        <v>328</v>
+      </c>
       <c r="H44" t="b">
         <v>0</v>
+      </c>
+      <c r="I44">
+        <v>33</v>
+      </c>
+      <c r="J44">
+        <v>6</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
@@ -2562,8 +2908,23 @@
       <c r="D45" t="s">
         <v>123</v>
       </c>
+      <c r="E45">
+        <v>29</v>
+      </c>
+      <c r="F45">
+        <v>1371</v>
+      </c>
+      <c r="G45">
+        <v>328</v>
+      </c>
       <c r="H45" t="b">
         <v>0</v>
+      </c>
+      <c r="I45">
+        <v>33</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -2582,8 +2943,23 @@
       <c r="D46" t="s">
         <v>124</v>
       </c>
+      <c r="E46">
+        <v>29</v>
+      </c>
+      <c r="F46">
+        <v>1371</v>
+      </c>
+      <c r="G46">
+        <v>328</v>
+      </c>
       <c r="H46" t="b">
         <v>0</v>
+      </c>
+      <c r="I46">
+        <v>33</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -2602,8 +2978,23 @@
       <c r="D47" t="s">
         <v>125</v>
       </c>
+      <c r="E47">
+        <v>29</v>
+      </c>
+      <c r="F47">
+        <v>1371</v>
+      </c>
+      <c r="G47">
+        <v>328</v>
+      </c>
       <c r="H47" t="b">
         <v>0</v>
+      </c>
+      <c r="I47">
+        <v>33</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
@@ -2622,8 +3013,23 @@
       <c r="D48" t="s">
         <v>126</v>
       </c>
+      <c r="E48">
+        <v>29</v>
+      </c>
+      <c r="F48">
+        <v>1371</v>
+      </c>
+      <c r="G48">
+        <v>328</v>
+      </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48">
+        <v>33</v>
+      </c>
+      <c r="J48">
+        <v>6</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
@@ -2642,8 +3048,23 @@
       <c r="D49" t="s">
         <v>127</v>
       </c>
+      <c r="E49">
+        <v>29</v>
+      </c>
+      <c r="F49">
+        <v>1371</v>
+      </c>
+      <c r="G49">
+        <v>328</v>
+      </c>
       <c r="H49" t="b">
         <v>0</v>
+      </c>
+      <c r="I49">
+        <v>33</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
@@ -2662,8 +3083,23 @@
       <c r="D50" t="s">
         <v>128</v>
       </c>
+      <c r="E50">
+        <v>29</v>
+      </c>
+      <c r="F50">
+        <v>1371</v>
+      </c>
+      <c r="G50">
+        <v>328</v>
+      </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50">
+        <v>33</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
@@ -2682,8 +3118,23 @@
       <c r="D51" t="s">
         <v>129</v>
       </c>
+      <c r="E51">
+        <v>29</v>
+      </c>
+      <c r="F51">
+        <v>1371</v>
+      </c>
+      <c r="G51">
+        <v>328</v>
+      </c>
       <c r="H51" t="b">
         <v>0</v>
+      </c>
+      <c r="I51">
+        <v>33</v>
+      </c>
+      <c r="J51">
+        <v>6</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
@@ -2702,8 +3153,23 @@
       <c r="D52" t="s">
         <v>130</v>
       </c>
+      <c r="E52">
+        <v>29</v>
+      </c>
+      <c r="F52">
+        <v>1371</v>
+      </c>
+      <c r="G52">
+        <v>328</v>
+      </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52">
+        <v>33</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
       </c>
       <c r="K52" t="b">
         <v>0</v>
@@ -2722,8 +3188,23 @@
       <c r="D53" t="s">
         <v>131</v>
       </c>
+      <c r="E53">
+        <v>29</v>
+      </c>
+      <c r="F53">
+        <v>1371</v>
+      </c>
+      <c r="G53">
+        <v>328</v>
+      </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53">
+        <v>33</v>
+      </c>
+      <c r="J53">
+        <v>6</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
@@ -2742,8 +3223,23 @@
       <c r="D54" t="s">
         <v>132</v>
       </c>
+      <c r="E54">
+        <v>29</v>
+      </c>
+      <c r="F54">
+        <v>1371</v>
+      </c>
+      <c r="G54">
+        <v>328</v>
+      </c>
       <c r="H54" t="b">
         <v>0</v>
+      </c>
+      <c r="I54">
+        <v>33</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
@@ -2762,8 +3258,23 @@
       <c r="D55" t="s">
         <v>133</v>
       </c>
+      <c r="E55">
+        <v>29</v>
+      </c>
+      <c r="F55">
+        <v>1371</v>
+      </c>
+      <c r="G55">
+        <v>328</v>
+      </c>
       <c r="H55" t="b">
         <v>0</v>
+      </c>
+      <c r="I55">
+        <v>33</v>
+      </c>
+      <c r="J55">
+        <v>6</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
@@ -2782,8 +3293,23 @@
       <c r="D56" t="s">
         <v>134</v>
       </c>
+      <c r="E56">
+        <v>29</v>
+      </c>
+      <c r="F56">
+        <v>1371</v>
+      </c>
+      <c r="G56">
+        <v>328</v>
+      </c>
       <c r="H56" t="b">
         <v>0</v>
+      </c>
+      <c r="I56">
+        <v>33</v>
+      </c>
+      <c r="J56">
+        <v>6</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
@@ -2802,8 +3328,23 @@
       <c r="D57" t="s">
         <v>135</v>
       </c>
+      <c r="E57">
+        <v>29</v>
+      </c>
+      <c r="F57">
+        <v>1371</v>
+      </c>
+      <c r="G57">
+        <v>328</v>
+      </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57">
+        <v>33</v>
+      </c>
+      <c r="J57">
+        <v>6</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
@@ -2822,8 +3363,23 @@
       <c r="D58" t="s">
         <v>136</v>
       </c>
+      <c r="E58">
+        <v>29</v>
+      </c>
+      <c r="F58">
+        <v>1371</v>
+      </c>
+      <c r="G58">
+        <v>328</v>
+      </c>
       <c r="H58" t="b">
         <v>0</v>
+      </c>
+      <c r="I58">
+        <v>33</v>
+      </c>
+      <c r="J58">
+        <v>6</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
@@ -2842,8 +3398,23 @@
       <c r="D59" t="s">
         <v>137</v>
       </c>
+      <c r="E59">
+        <v>29</v>
+      </c>
+      <c r="F59">
+        <v>1371</v>
+      </c>
+      <c r="G59">
+        <v>328</v>
+      </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59">
+        <v>33</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
@@ -2862,8 +3433,23 @@
       <c r="D60" t="s">
         <v>138</v>
       </c>
+      <c r="E60">
+        <v>29</v>
+      </c>
+      <c r="F60">
+        <v>1371</v>
+      </c>
+      <c r="G60">
+        <v>328</v>
+      </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60">
+        <v>33</v>
+      </c>
+      <c r="J60">
+        <v>6</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
@@ -2882,8 +3468,23 @@
       <c r="D61" t="s">
         <v>139</v>
       </c>
+      <c r="E61">
+        <v>29</v>
+      </c>
+      <c r="F61">
+        <v>1371</v>
+      </c>
+      <c r="G61">
+        <v>328</v>
+      </c>
       <c r="H61" t="b">
         <v>0</v>
+      </c>
+      <c r="I61">
+        <v>33</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
@@ -2902,8 +3503,23 @@
       <c r="D62" t="s">
         <v>140</v>
       </c>
+      <c r="E62">
+        <v>29</v>
+      </c>
+      <c r="F62">
+        <v>1371</v>
+      </c>
+      <c r="G62">
+        <v>328</v>
+      </c>
       <c r="H62" t="b">
         <v>0</v>
+      </c>
+      <c r="I62">
+        <v>33</v>
+      </c>
+      <c r="J62">
+        <v>6</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
@@ -2922,8 +3538,23 @@
       <c r="D63" t="s">
         <v>141</v>
       </c>
+      <c r="E63">
+        <v>29</v>
+      </c>
+      <c r="F63">
+        <v>1371</v>
+      </c>
+      <c r="G63">
+        <v>328</v>
+      </c>
       <c r="H63" t="b">
         <v>0</v>
+      </c>
+      <c r="I63">
+        <v>33</v>
+      </c>
+      <c r="J63">
+        <v>6</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
@@ -2942,8 +3573,23 @@
       <c r="D64" t="s">
         <v>142</v>
       </c>
+      <c r="E64">
+        <v>29</v>
+      </c>
+      <c r="F64">
+        <v>1371</v>
+      </c>
+      <c r="G64">
+        <v>328</v>
+      </c>
       <c r="H64" t="b">
         <v>0</v>
+      </c>
+      <c r="I64">
+        <v>33</v>
+      </c>
+      <c r="J64">
+        <v>6</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
@@ -2962,8 +3608,23 @@
       <c r="D65" t="s">
         <v>143</v>
       </c>
+      <c r="E65">
+        <v>29</v>
+      </c>
+      <c r="F65">
+        <v>1371</v>
+      </c>
+      <c r="G65">
+        <v>328</v>
+      </c>
       <c r="H65" t="b">
         <v>0</v>
+      </c>
+      <c r="I65">
+        <v>33</v>
+      </c>
+      <c r="J65">
+        <v>6</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
@@ -2982,8 +3643,23 @@
       <c r="D66" t="s">
         <v>144</v>
       </c>
+      <c r="E66">
+        <v>29</v>
+      </c>
+      <c r="F66">
+        <v>1371</v>
+      </c>
+      <c r="G66">
+        <v>328</v>
+      </c>
       <c r="H66" t="b">
         <v>0</v>
+      </c>
+      <c r="I66">
+        <v>33</v>
+      </c>
+      <c r="J66">
+        <v>6</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
@@ -3002,8 +3678,23 @@
       <c r="D67" t="s">
         <v>145</v>
       </c>
+      <c r="E67">
+        <v>29</v>
+      </c>
+      <c r="F67">
+        <v>1371</v>
+      </c>
+      <c r="G67">
+        <v>328</v>
+      </c>
       <c r="H67" t="b">
         <v>0</v>
+      </c>
+      <c r="I67">
+        <v>33</v>
+      </c>
+      <c r="J67">
+        <v>6</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
@@ -3022,8 +3713,23 @@
       <c r="D68" t="s">
         <v>146</v>
       </c>
+      <c r="E68">
+        <v>29</v>
+      </c>
+      <c r="F68">
+        <v>1371</v>
+      </c>
+      <c r="G68">
+        <v>328</v>
+      </c>
       <c r="H68" t="b">
         <v>0</v>
+      </c>
+      <c r="I68">
+        <v>33</v>
+      </c>
+      <c r="J68">
+        <v>6</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
@@ -3042,8 +3748,23 @@
       <c r="D69" t="s">
         <v>147</v>
       </c>
+      <c r="E69">
+        <v>29</v>
+      </c>
+      <c r="F69">
+        <v>1371</v>
+      </c>
+      <c r="G69">
+        <v>328</v>
+      </c>
       <c r="H69" t="b">
         <v>0</v>
+      </c>
+      <c r="I69">
+        <v>33</v>
+      </c>
+      <c r="J69">
+        <v>6</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
@@ -3062,8 +3783,23 @@
       <c r="D70" t="s">
         <v>148</v>
       </c>
+      <c r="E70">
+        <v>29</v>
+      </c>
+      <c r="F70">
+        <v>1371</v>
+      </c>
+      <c r="G70">
+        <v>328</v>
+      </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70">
+        <v>33</v>
+      </c>
+      <c r="J70">
+        <v>6</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
@@ -3082,8 +3818,23 @@
       <c r="D71" t="s">
         <v>149</v>
       </c>
+      <c r="E71">
+        <v>29</v>
+      </c>
+      <c r="F71">
+        <v>1371</v>
+      </c>
+      <c r="G71">
+        <v>328</v>
+      </c>
       <c r="H71" t="b">
         <v>0</v>
+      </c>
+      <c r="I71">
+        <v>33</v>
+      </c>
+      <c r="J71">
+        <v>6</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
@@ -3102,8 +3853,23 @@
       <c r="D72" t="s">
         <v>150</v>
       </c>
+      <c r="E72">
+        <v>29</v>
+      </c>
+      <c r="F72">
+        <v>1371</v>
+      </c>
+      <c r="G72">
+        <v>328</v>
+      </c>
       <c r="H72" t="b">
         <v>0</v>
+      </c>
+      <c r="I72">
+        <v>33</v>
+      </c>
+      <c r="J72">
+        <v>6</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
@@ -3122,8 +3888,23 @@
       <c r="D73" t="s">
         <v>151</v>
       </c>
+      <c r="E73">
+        <v>29</v>
+      </c>
+      <c r="F73">
+        <v>1371</v>
+      </c>
+      <c r="G73">
+        <v>328</v>
+      </c>
       <c r="H73" t="b">
         <v>0</v>
+      </c>
+      <c r="I73">
+        <v>33</v>
+      </c>
+      <c r="J73">
+        <v>6</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
@@ -3142,8 +3923,23 @@
       <c r="D74" t="s">
         <v>152</v>
       </c>
+      <c r="E74">
+        <v>29</v>
+      </c>
+      <c r="F74">
+        <v>1371</v>
+      </c>
+      <c r="G74">
+        <v>328</v>
+      </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74">
+        <v>33</v>
+      </c>
+      <c r="J74">
+        <v>6</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
@@ -3162,8 +3958,23 @@
       <c r="D75" t="s">
         <v>31</v>
       </c>
+      <c r="E75">
+        <v>29</v>
+      </c>
+      <c r="F75">
+        <v>1371</v>
+      </c>
+      <c r="G75">
+        <v>328</v>
+      </c>
       <c r="H75" t="b">
         <v>0</v>
+      </c>
+      <c r="I75">
+        <v>33</v>
+      </c>
+      <c r="J75">
+        <v>6</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
@@ -3182,8 +3993,23 @@
       <c r="D76" t="s">
         <v>153</v>
       </c>
+      <c r="E76">
+        <v>29</v>
+      </c>
+      <c r="F76">
+        <v>1371</v>
+      </c>
+      <c r="G76">
+        <v>328</v>
+      </c>
       <c r="H76" t="b">
         <v>0</v>
+      </c>
+      <c r="I76">
+        <v>33</v>
+      </c>
+      <c r="J76">
+        <v>6</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
@@ -3202,8 +4028,23 @@
       <c r="D77" t="s">
         <v>154</v>
       </c>
+      <c r="E77">
+        <v>29</v>
+      </c>
+      <c r="F77">
+        <v>1371</v>
+      </c>
+      <c r="G77">
+        <v>328</v>
+      </c>
       <c r="H77" t="b">
         <v>0</v>
+      </c>
+      <c r="I77">
+        <v>33</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
@@ -3222,8 +4063,23 @@
       <c r="D78" t="s">
         <v>155</v>
       </c>
+      <c r="E78">
+        <v>29</v>
+      </c>
+      <c r="F78">
+        <v>1371</v>
+      </c>
+      <c r="G78">
+        <v>328</v>
+      </c>
       <c r="H78" t="b">
         <v>0</v>
+      </c>
+      <c r="I78">
+        <v>33</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
@@ -3242,8 +4098,23 @@
       <c r="D79" t="s">
         <v>156</v>
       </c>
+      <c r="E79">
+        <v>29</v>
+      </c>
+      <c r="F79">
+        <v>1371</v>
+      </c>
+      <c r="G79">
+        <v>328</v>
+      </c>
       <c r="H79" t="b">
         <v>0</v>
+      </c>
+      <c r="I79">
+        <v>33</v>
+      </c>
+      <c r="J79">
+        <v>6</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
@@ -3262,8 +4133,23 @@
       <c r="D80" t="s">
         <v>157</v>
       </c>
+      <c r="E80">
+        <v>29</v>
+      </c>
+      <c r="F80">
+        <v>1371</v>
+      </c>
+      <c r="G80">
+        <v>328</v>
+      </c>
       <c r="H80" t="b">
         <v>0</v>
+      </c>
+      <c r="I80">
+        <v>33</v>
+      </c>
+      <c r="J80">
+        <v>6</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
@@ -3282,8 +4168,23 @@
       <c r="D81" t="s">
         <v>158</v>
       </c>
+      <c r="E81">
+        <v>29</v>
+      </c>
+      <c r="F81">
+        <v>1371</v>
+      </c>
+      <c r="G81">
+        <v>328</v>
+      </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81">
+        <v>33</v>
+      </c>
+      <c r="J81">
+        <v>6</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
@@ -3302,8 +4203,23 @@
       <c r="D82" t="s">
         <v>159</v>
       </c>
+      <c r="E82">
+        <v>29</v>
+      </c>
+      <c r="F82">
+        <v>1371</v>
+      </c>
+      <c r="G82">
+        <v>328</v>
+      </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82">
+        <v>33</v>
+      </c>
+      <c r="J82">
+        <v>6</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
@@ -3322,8 +4238,23 @@
       <c r="D83" t="s">
         <v>160</v>
       </c>
+      <c r="E83">
+        <v>29</v>
+      </c>
+      <c r="F83">
+        <v>1371</v>
+      </c>
+      <c r="G83">
+        <v>328</v>
+      </c>
       <c r="H83" t="b">
         <v>0</v>
+      </c>
+      <c r="I83">
+        <v>33</v>
+      </c>
+      <c r="J83">
+        <v>6</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
@@ -3342,8 +4273,23 @@
       <c r="D84" t="s">
         <v>161</v>
       </c>
+      <c r="E84">
+        <v>29</v>
+      </c>
+      <c r="F84">
+        <v>1371</v>
+      </c>
+      <c r="G84">
+        <v>328</v>
+      </c>
       <c r="H84" t="b">
         <v>0</v>
+      </c>
+      <c r="I84">
+        <v>33</v>
+      </c>
+      <c r="J84">
+        <v>6</v>
       </c>
       <c r="K84" t="b">
         <v>0</v>
@@ -3362,8 +4308,23 @@
       <c r="D85" t="s">
         <v>162</v>
       </c>
+      <c r="E85">
+        <v>29</v>
+      </c>
+      <c r="F85">
+        <v>1371</v>
+      </c>
+      <c r="G85">
+        <v>328</v>
+      </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85">
+        <v>33</v>
+      </c>
+      <c r="J85">
+        <v>6</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
@@ -3382,8 +4343,23 @@
       <c r="D86" t="s">
         <v>163</v>
       </c>
+      <c r="E86">
+        <v>29</v>
+      </c>
+      <c r="F86">
+        <v>1371</v>
+      </c>
+      <c r="G86">
+        <v>328</v>
+      </c>
       <c r="H86" t="b">
         <v>0</v>
+      </c>
+      <c r="I86">
+        <v>33</v>
+      </c>
+      <c r="J86">
+        <v>6</v>
       </c>
       <c r="K86" t="b">
         <v>1</v>
@@ -3402,8 +4378,23 @@
       <c r="D87" t="s">
         <v>164</v>
       </c>
+      <c r="E87">
+        <v>29</v>
+      </c>
+      <c r="F87">
+        <v>1371</v>
+      </c>
+      <c r="G87">
+        <v>328</v>
+      </c>
       <c r="H87" t="b">
         <v>0</v>
+      </c>
+      <c r="I87">
+        <v>33</v>
+      </c>
+      <c r="J87">
+        <v>6</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
@@ -3422,8 +4413,23 @@
       <c r="D88" t="s">
         <v>165</v>
       </c>
+      <c r="E88">
+        <v>29</v>
+      </c>
+      <c r="F88">
+        <v>1371</v>
+      </c>
+      <c r="G88">
+        <v>328</v>
+      </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88">
+        <v>33</v>
+      </c>
+      <c r="J88">
+        <v>6</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
@@ -3442,8 +4448,23 @@
       <c r="D89" t="s">
         <v>166</v>
       </c>
+      <c r="E89">
+        <v>29</v>
+      </c>
+      <c r="F89">
+        <v>1371</v>
+      </c>
+      <c r="G89">
+        <v>328</v>
+      </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89">
+        <v>33</v>
+      </c>
+      <c r="J89">
+        <v>6</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
@@ -3462,8 +4483,23 @@
       <c r="D90" t="s">
         <v>167</v>
       </c>
+      <c r="E90">
+        <v>29</v>
+      </c>
+      <c r="F90">
+        <v>1371</v>
+      </c>
+      <c r="G90">
+        <v>328</v>
+      </c>
       <c r="H90" t="b">
         <v>0</v>
+      </c>
+      <c r="I90">
+        <v>33</v>
+      </c>
+      <c r="J90">
+        <v>6</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
@@ -3482,8 +4518,23 @@
       <c r="D91" t="s">
         <v>168</v>
       </c>
+      <c r="E91">
+        <v>29</v>
+      </c>
+      <c r="F91">
+        <v>1371</v>
+      </c>
+      <c r="G91">
+        <v>328</v>
+      </c>
       <c r="H91" t="b">
         <v>0</v>
+      </c>
+      <c r="I91">
+        <v>33</v>
+      </c>
+      <c r="J91">
+        <v>6</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
@@ -3502,8 +4553,23 @@
       <c r="D92" t="s">
         <v>169</v>
       </c>
+      <c r="E92">
+        <v>29</v>
+      </c>
+      <c r="F92">
+        <v>1371</v>
+      </c>
+      <c r="G92">
+        <v>328</v>
+      </c>
       <c r="H92" t="b">
         <v>0</v>
+      </c>
+      <c r="I92">
+        <v>33</v>
+      </c>
+      <c r="J92">
+        <v>6</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
@@ -3522,8 +4588,23 @@
       <c r="D93" t="s">
         <v>170</v>
       </c>
+      <c r="E93">
+        <v>29</v>
+      </c>
+      <c r="F93">
+        <v>1371</v>
+      </c>
+      <c r="G93">
+        <v>328</v>
+      </c>
       <c r="H93" t="b">
         <v>0</v>
+      </c>
+      <c r="I93">
+        <v>33</v>
+      </c>
+      <c r="J93">
+        <v>6</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
@@ -3542,8 +4623,23 @@
       <c r="D94" t="s">
         <v>171</v>
       </c>
+      <c r="E94">
+        <v>29</v>
+      </c>
+      <c r="F94">
+        <v>1371</v>
+      </c>
+      <c r="G94">
+        <v>328</v>
+      </c>
       <c r="H94" t="b">
         <v>0</v>
+      </c>
+      <c r="I94">
+        <v>33</v>
+      </c>
+      <c r="J94">
+        <v>6</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
@@ -3562,8 +4658,23 @@
       <c r="D95" t="s">
         <v>172</v>
       </c>
+      <c r="E95">
+        <v>29</v>
+      </c>
+      <c r="F95">
+        <v>1371</v>
+      </c>
+      <c r="G95">
+        <v>328</v>
+      </c>
       <c r="H95" t="b">
         <v>0</v>
+      </c>
+      <c r="I95">
+        <v>33</v>
+      </c>
+      <c r="J95">
+        <v>6</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
@@ -3582,8 +4693,23 @@
       <c r="D96" t="s">
         <v>173</v>
       </c>
+      <c r="E96">
+        <v>29</v>
+      </c>
+      <c r="F96">
+        <v>1371</v>
+      </c>
+      <c r="G96">
+        <v>328</v>
+      </c>
       <c r="H96" t="b">
         <v>0</v>
+      </c>
+      <c r="I96">
+        <v>33</v>
+      </c>
+      <c r="J96">
+        <v>6</v>
       </c>
       <c r="K96" t="b">
         <v>0</v>
@@ -3602,8 +4728,23 @@
       <c r="D97" t="s">
         <v>174</v>
       </c>
+      <c r="E97">
+        <v>29</v>
+      </c>
+      <c r="F97">
+        <v>1371</v>
+      </c>
+      <c r="G97">
+        <v>328</v>
+      </c>
       <c r="H97" t="b">
         <v>0</v>
+      </c>
+      <c r="I97">
+        <v>33</v>
+      </c>
+      <c r="J97">
+        <v>6</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
@@ -3622,8 +4763,23 @@
       <c r="D98" t="s">
         <v>175</v>
       </c>
+      <c r="E98">
+        <v>29</v>
+      </c>
+      <c r="F98">
+        <v>1371</v>
+      </c>
+      <c r="G98">
+        <v>328</v>
+      </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98">
+        <v>33</v>
+      </c>
+      <c r="J98">
+        <v>6</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
@@ -3642,8 +4798,23 @@
       <c r="D99" t="s">
         <v>176</v>
       </c>
+      <c r="E99">
+        <v>29</v>
+      </c>
+      <c r="F99">
+        <v>1371</v>
+      </c>
+      <c r="G99">
+        <v>328</v>
+      </c>
       <c r="H99" t="b">
         <v>0</v>
+      </c>
+      <c r="I99">
+        <v>33</v>
+      </c>
+      <c r="J99">
+        <v>6</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
@@ -3662,8 +4833,23 @@
       <c r="D100" t="s">
         <v>177</v>
       </c>
+      <c r="E100">
+        <v>29</v>
+      </c>
+      <c r="F100">
+        <v>1371</v>
+      </c>
+      <c r="G100">
+        <v>328</v>
+      </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100">
+        <v>33</v>
+      </c>
+      <c r="J100">
+        <v>6</v>
       </c>
       <c r="K100" t="b">
         <v>0</v>
@@ -3682,8 +4868,23 @@
       <c r="D101" t="s">
         <v>178</v>
       </c>
+      <c r="E101">
+        <v>29</v>
+      </c>
+      <c r="F101">
+        <v>1371</v>
+      </c>
+      <c r="G101">
+        <v>328</v>
+      </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101">
+        <v>33</v>
+      </c>
+      <c r="J101">
+        <v>6</v>
       </c>
       <c r="K101" t="b">
         <v>1</v>
@@ -3702,8 +4903,23 @@
       <c r="D102" t="s">
         <v>179</v>
       </c>
+      <c r="E102">
+        <v>29</v>
+      </c>
+      <c r="F102">
+        <v>1371</v>
+      </c>
+      <c r="G102">
+        <v>328</v>
+      </c>
       <c r="H102" t="b">
         <v>0</v>
+      </c>
+      <c r="I102">
+        <v>33</v>
+      </c>
+      <c r="J102">
+        <v>6</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
@@ -3722,8 +4938,23 @@
       <c r="D103" t="s">
         <v>180</v>
       </c>
+      <c r="E103">
+        <v>29</v>
+      </c>
+      <c r="F103">
+        <v>1371</v>
+      </c>
+      <c r="G103">
+        <v>328</v>
+      </c>
       <c r="H103" t="b">
         <v>0</v>
+      </c>
+      <c r="I103">
+        <v>33</v>
+      </c>
+      <c r="J103">
+        <v>6</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
@@ -3742,8 +4973,23 @@
       <c r="D104" t="s">
         <v>181</v>
       </c>
+      <c r="E104">
+        <v>29</v>
+      </c>
+      <c r="F104">
+        <v>1371</v>
+      </c>
+      <c r="G104">
+        <v>328</v>
+      </c>
       <c r="H104" t="b">
         <v>0</v>
+      </c>
+      <c r="I104">
+        <v>33</v>
+      </c>
+      <c r="J104">
+        <v>6</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
@@ -3762,8 +5008,23 @@
       <c r="D105" t="s">
         <v>118</v>
       </c>
+      <c r="E105">
+        <v>29</v>
+      </c>
+      <c r="F105">
+        <v>1371</v>
+      </c>
+      <c r="G105">
+        <v>328</v>
+      </c>
       <c r="H105" t="b">
         <v>0</v>
+      </c>
+      <c r="I105">
+        <v>33</v>
+      </c>
+      <c r="J105">
+        <v>6</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
@@ -3782,8 +5043,23 @@
       <c r="D106" t="s">
         <v>182</v>
       </c>
+      <c r="E106">
+        <v>29</v>
+      </c>
+      <c r="F106">
+        <v>1371</v>
+      </c>
+      <c r="G106">
+        <v>328</v>
+      </c>
       <c r="H106" t="b">
         <v>0</v>
+      </c>
+      <c r="I106">
+        <v>33</v>
+      </c>
+      <c r="J106">
+        <v>6</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
@@ -3802,8 +5078,23 @@
       <c r="D107" t="s">
         <v>31</v>
       </c>
+      <c r="E107">
+        <v>29</v>
+      </c>
+      <c r="F107">
+        <v>1371</v>
+      </c>
+      <c r="G107">
+        <v>328</v>
+      </c>
       <c r="H107" t="b">
         <v>0</v>
+      </c>
+      <c r="I107">
+        <v>33</v>
+      </c>
+      <c r="J107">
+        <v>6</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
@@ -3822,8 +5113,23 @@
       <c r="D108" t="s">
         <v>183</v>
       </c>
+      <c r="E108">
+        <v>29</v>
+      </c>
+      <c r="F108">
+        <v>1371</v>
+      </c>
+      <c r="G108">
+        <v>328</v>
+      </c>
       <c r="H108" t="b">
         <v>0</v>
+      </c>
+      <c r="I108">
+        <v>33</v>
+      </c>
+      <c r="J108">
+        <v>6</v>
       </c>
       <c r="K108" t="b">
         <v>0</v>
@@ -3842,8 +5148,23 @@
       <c r="D109" t="s">
         <v>184</v>
       </c>
+      <c r="E109">
+        <v>29</v>
+      </c>
+      <c r="F109">
+        <v>1371</v>
+      </c>
+      <c r="G109">
+        <v>328</v>
+      </c>
       <c r="H109" t="b">
         <v>0</v>
+      </c>
+      <c r="I109">
+        <v>33</v>
+      </c>
+      <c r="J109">
+        <v>6</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
@@ -3862,8 +5183,23 @@
       <c r="D110" t="s">
         <v>185</v>
       </c>
+      <c r="E110">
+        <v>29</v>
+      </c>
+      <c r="F110">
+        <v>1371</v>
+      </c>
+      <c r="G110">
+        <v>328</v>
+      </c>
       <c r="H110" t="b">
         <v>0</v>
+      </c>
+      <c r="I110">
+        <v>33</v>
+      </c>
+      <c r="J110">
+        <v>6</v>
       </c>
       <c r="K110" t="b">
         <v>0</v>
@@ -3882,8 +5218,23 @@
       <c r="D111" t="s">
         <v>186</v>
       </c>
+      <c r="E111">
+        <v>29</v>
+      </c>
+      <c r="F111">
+        <v>1371</v>
+      </c>
+      <c r="G111">
+        <v>328</v>
+      </c>
       <c r="H111" t="b">
         <v>0</v>
+      </c>
+      <c r="I111">
+        <v>33</v>
+      </c>
+      <c r="J111">
+        <v>6</v>
       </c>
       <c r="K111" t="b">
         <v>0</v>
@@ -3902,8 +5253,23 @@
       <c r="D112" t="s">
         <v>187</v>
       </c>
+      <c r="E112">
+        <v>29</v>
+      </c>
+      <c r="F112">
+        <v>1371</v>
+      </c>
+      <c r="G112">
+        <v>328</v>
+      </c>
       <c r="H112" t="b">
         <v>0</v>
+      </c>
+      <c r="I112">
+        <v>33</v>
+      </c>
+      <c r="J112">
+        <v>6</v>
       </c>
       <c r="K112" t="b">
         <v>0</v>
@@ -3922,8 +5288,23 @@
       <c r="D113" t="s">
         <v>188</v>
       </c>
+      <c r="E113">
+        <v>29</v>
+      </c>
+      <c r="F113">
+        <v>1371</v>
+      </c>
+      <c r="G113">
+        <v>328</v>
+      </c>
       <c r="H113" t="b">
         <v>0</v>
+      </c>
+      <c r="I113">
+        <v>33</v>
+      </c>
+      <c r="J113">
+        <v>6</v>
       </c>
       <c r="K113" t="b">
         <v>0</v>
@@ -3942,8 +5323,23 @@
       <c r="D114" t="s">
         <v>189</v>
       </c>
+      <c r="E114">
+        <v>29</v>
+      </c>
+      <c r="F114">
+        <v>1371</v>
+      </c>
+      <c r="G114">
+        <v>328</v>
+      </c>
       <c r="H114" t="b">
         <v>0</v>
+      </c>
+      <c r="I114">
+        <v>33</v>
+      </c>
+      <c r="J114">
+        <v>6</v>
       </c>
       <c r="K114" t="b">
         <v>0</v>
@@ -3962,8 +5358,23 @@
       <c r="D115" t="s">
         <v>190</v>
       </c>
+      <c r="E115">
+        <v>29</v>
+      </c>
+      <c r="F115">
+        <v>1371</v>
+      </c>
+      <c r="G115">
+        <v>328</v>
+      </c>
       <c r="H115" t="b">
         <v>0</v>
+      </c>
+      <c r="I115">
+        <v>33</v>
+      </c>
+      <c r="J115">
+        <v>6</v>
       </c>
       <c r="K115" t="b">
         <v>0</v>
@@ -3982,8 +5393,23 @@
       <c r="D116" t="s">
         <v>191</v>
       </c>
+      <c r="E116">
+        <v>29</v>
+      </c>
+      <c r="F116">
+        <v>1371</v>
+      </c>
+      <c r="G116">
+        <v>328</v>
+      </c>
       <c r="H116" t="b">
         <v>0</v>
+      </c>
+      <c r="I116">
+        <v>33</v>
+      </c>
+      <c r="J116">
+        <v>6</v>
       </c>
       <c r="K116" t="b">
         <v>0</v>
@@ -4002,8 +5428,23 @@
       <c r="D117" t="s">
         <v>192</v>
       </c>
+      <c r="E117">
+        <v>29</v>
+      </c>
+      <c r="F117">
+        <v>1371</v>
+      </c>
+      <c r="G117">
+        <v>328</v>
+      </c>
       <c r="H117" t="b">
         <v>0</v>
+      </c>
+      <c r="I117">
+        <v>33</v>
+      </c>
+      <c r="J117">
+        <v>6</v>
       </c>
       <c r="K117" t="b">
         <v>0</v>
@@ -4022,8 +5463,23 @@
       <c r="D118" t="s">
         <v>193</v>
       </c>
+      <c r="E118">
+        <v>29</v>
+      </c>
+      <c r="F118">
+        <v>1371</v>
+      </c>
+      <c r="G118">
+        <v>328</v>
+      </c>
       <c r="H118" t="b">
         <v>0</v>
+      </c>
+      <c r="I118">
+        <v>33</v>
+      </c>
+      <c r="J118">
+        <v>6</v>
       </c>
       <c r="K118" t="b">
         <v>0</v>
@@ -4042,8 +5498,23 @@
       <c r="D119" t="s">
         <v>194</v>
       </c>
+      <c r="E119">
+        <v>29</v>
+      </c>
+      <c r="F119">
+        <v>1371</v>
+      </c>
+      <c r="G119">
+        <v>328</v>
+      </c>
       <c r="H119" t="b">
         <v>0</v>
+      </c>
+      <c r="I119">
+        <v>33</v>
+      </c>
+      <c r="J119">
+        <v>6</v>
       </c>
       <c r="K119" t="b">
         <v>0</v>
@@ -4062,8 +5533,23 @@
       <c r="D120" t="s">
         <v>195</v>
       </c>
+      <c r="E120">
+        <v>29</v>
+      </c>
+      <c r="F120">
+        <v>1371</v>
+      </c>
+      <c r="G120">
+        <v>328</v>
+      </c>
       <c r="H120" t="b">
         <v>0</v>
+      </c>
+      <c r="I120">
+        <v>33</v>
+      </c>
+      <c r="J120">
+        <v>6</v>
       </c>
       <c r="K120" t="b">
         <v>0</v>
@@ -4082,8 +5568,23 @@
       <c r="D121" t="s">
         <v>196</v>
       </c>
+      <c r="E121">
+        <v>29</v>
+      </c>
+      <c r="F121">
+        <v>1371</v>
+      </c>
+      <c r="G121">
+        <v>328</v>
+      </c>
       <c r="H121" t="b">
         <v>0</v>
+      </c>
+      <c r="I121">
+        <v>33</v>
+      </c>
+      <c r="J121">
+        <v>6</v>
       </c>
       <c r="K121" t="b">
         <v>0</v>
@@ -4102,8 +5603,23 @@
       <c r="D122" t="s">
         <v>197</v>
       </c>
+      <c r="E122">
+        <v>29</v>
+      </c>
+      <c r="F122">
+        <v>1371</v>
+      </c>
+      <c r="G122">
+        <v>328</v>
+      </c>
       <c r="H122" t="b">
         <v>0</v>
+      </c>
+      <c r="I122">
+        <v>33</v>
+      </c>
+      <c r="J122">
+        <v>6</v>
       </c>
       <c r="K122" t="b">
         <v>0</v>
@@ -4122,8 +5638,23 @@
       <c r="D123" t="s">
         <v>198</v>
       </c>
+      <c r="E123">
+        <v>29</v>
+      </c>
+      <c r="F123">
+        <v>1371</v>
+      </c>
+      <c r="G123">
+        <v>328</v>
+      </c>
       <c r="H123" t="b">
         <v>0</v>
+      </c>
+      <c r="I123">
+        <v>33</v>
+      </c>
+      <c r="J123">
+        <v>6</v>
       </c>
       <c r="K123" t="b">
         <v>0</v>
@@ -4142,8 +5673,23 @@
       <c r="D124" t="s">
         <v>189</v>
       </c>
+      <c r="E124">
+        <v>29</v>
+      </c>
+      <c r="F124">
+        <v>1371</v>
+      </c>
+      <c r="G124">
+        <v>328</v>
+      </c>
       <c r="H124" t="b">
         <v>0</v>
+      </c>
+      <c r="I124">
+        <v>33</v>
+      </c>
+      <c r="J124">
+        <v>6</v>
       </c>
       <c r="K124" t="b">
         <v>0</v>
@@ -4162,8 +5708,23 @@
       <c r="D125" t="s">
         <v>199</v>
       </c>
+      <c r="E125">
+        <v>29</v>
+      </c>
+      <c r="F125">
+        <v>1371</v>
+      </c>
+      <c r="G125">
+        <v>328</v>
+      </c>
       <c r="H125" t="b">
         <v>0</v>
+      </c>
+      <c r="I125">
+        <v>33</v>
+      </c>
+      <c r="J125">
+        <v>6</v>
       </c>
       <c r="K125" t="b">
         <v>0</v>
@@ -4182,8 +5743,23 @@
       <c r="D126" t="s">
         <v>189</v>
       </c>
+      <c r="E126">
+        <v>29</v>
+      </c>
+      <c r="F126">
+        <v>1371</v>
+      </c>
+      <c r="G126">
+        <v>328</v>
+      </c>
       <c r="H126" t="b">
         <v>0</v>
+      </c>
+      <c r="I126">
+        <v>33</v>
+      </c>
+      <c r="J126">
+        <v>6</v>
       </c>
       <c r="K126" t="b">
         <v>0</v>
@@ -4202,8 +5778,23 @@
       <c r="D127" t="s">
         <v>200</v>
       </c>
+      <c r="E127">
+        <v>29</v>
+      </c>
+      <c r="F127">
+        <v>1371</v>
+      </c>
+      <c r="G127">
+        <v>328</v>
+      </c>
       <c r="H127" t="b">
         <v>0</v>
+      </c>
+      <c r="I127">
+        <v>33</v>
+      </c>
+      <c r="J127">
+        <v>6</v>
       </c>
       <c r="K127" t="b">
         <v>0</v>
@@ -4222,8 +5813,23 @@
       <c r="D128" t="s">
         <v>201</v>
       </c>
+      <c r="E128">
+        <v>29</v>
+      </c>
+      <c r="F128">
+        <v>1371</v>
+      </c>
+      <c r="G128">
+        <v>328</v>
+      </c>
       <c r="H128" t="b">
         <v>0</v>
+      </c>
+      <c r="I128">
+        <v>33</v>
+      </c>
+      <c r="J128">
+        <v>6</v>
       </c>
       <c r="K128" t="b">
         <v>0</v>
@@ -4242,8 +5848,23 @@
       <c r="D129" t="s">
         <v>189</v>
       </c>
+      <c r="E129">
+        <v>29</v>
+      </c>
+      <c r="F129">
+        <v>1371</v>
+      </c>
+      <c r="G129">
+        <v>328</v>
+      </c>
       <c r="H129" t="b">
         <v>0</v>
+      </c>
+      <c r="I129">
+        <v>33</v>
+      </c>
+      <c r="J129">
+        <v>6</v>
       </c>
       <c r="K129" t="b">
         <v>0</v>
@@ -4262,8 +5883,23 @@
       <c r="D130" t="s">
         <v>202</v>
       </c>
+      <c r="E130">
+        <v>29</v>
+      </c>
+      <c r="F130">
+        <v>1371</v>
+      </c>
+      <c r="G130">
+        <v>328</v>
+      </c>
       <c r="H130" t="b">
         <v>0</v>
+      </c>
+      <c r="I130">
+        <v>33</v>
+      </c>
+      <c r="J130">
+        <v>6</v>
       </c>
       <c r="K130" t="b">
         <v>0</v>
@@ -4282,8 +5918,23 @@
       <c r="D131" t="s">
         <v>203</v>
       </c>
+      <c r="E131">
+        <v>29</v>
+      </c>
+      <c r="F131">
+        <v>1371</v>
+      </c>
+      <c r="G131">
+        <v>328</v>
+      </c>
       <c r="H131" t="b">
         <v>0</v>
+      </c>
+      <c r="I131">
+        <v>33</v>
+      </c>
+      <c r="J131">
+        <v>6</v>
       </c>
       <c r="K131" t="b">
         <v>0</v>
@@ -4302,8 +5953,23 @@
       <c r="D132" t="s">
         <v>204</v>
       </c>
+      <c r="E132">
+        <v>29</v>
+      </c>
+      <c r="F132">
+        <v>1371</v>
+      </c>
+      <c r="G132">
+        <v>328</v>
+      </c>
       <c r="H132" t="b">
         <v>0</v>
+      </c>
+      <c r="I132">
+        <v>33</v>
+      </c>
+      <c r="J132">
+        <v>6</v>
       </c>
       <c r="K132" t="b">
         <v>0</v>
@@ -4322,8 +5988,23 @@
       <c r="D133" t="s">
         <v>189</v>
       </c>
+      <c r="E133">
+        <v>29</v>
+      </c>
+      <c r="F133">
+        <v>1371</v>
+      </c>
+      <c r="G133">
+        <v>328</v>
+      </c>
       <c r="H133" t="b">
         <v>0</v>
+      </c>
+      <c r="I133">
+        <v>33</v>
+      </c>
+      <c r="J133">
+        <v>6</v>
       </c>
       <c r="K133" t="b">
         <v>0</v>
@@ -4342,8 +6023,23 @@
       <c r="D134" t="s">
         <v>205</v>
       </c>
+      <c r="E134">
+        <v>29</v>
+      </c>
+      <c r="F134">
+        <v>1371</v>
+      </c>
+      <c r="G134">
+        <v>328</v>
+      </c>
       <c r="H134" t="b">
         <v>0</v>
+      </c>
+      <c r="I134">
+        <v>33</v>
+      </c>
+      <c r="J134">
+        <v>6</v>
       </c>
       <c r="K134" t="b">
         <v>0</v>
@@ -4362,8 +6058,23 @@
       <c r="D135" t="s">
         <v>189</v>
       </c>
+      <c r="E135">
+        <v>29</v>
+      </c>
+      <c r="F135">
+        <v>1371</v>
+      </c>
+      <c r="G135">
+        <v>328</v>
+      </c>
       <c r="H135" t="b">
         <v>0</v>
+      </c>
+      <c r="I135">
+        <v>33</v>
+      </c>
+      <c r="J135">
+        <v>6</v>
       </c>
       <c r="K135" t="b">
         <v>0</v>
@@ -4382,8 +6093,23 @@
       <c r="D136" t="s">
         <v>206</v>
       </c>
+      <c r="E136">
+        <v>29</v>
+      </c>
+      <c r="F136">
+        <v>1371</v>
+      </c>
+      <c r="G136">
+        <v>328</v>
+      </c>
       <c r="H136" t="b">
         <v>0</v>
+      </c>
+      <c r="I136">
+        <v>33</v>
+      </c>
+      <c r="J136">
+        <v>6</v>
       </c>
       <c r="K136" t="b">
         <v>0</v>
@@ -4402,8 +6128,23 @@
       <c r="D137" t="s">
         <v>207</v>
       </c>
+      <c r="E137">
+        <v>29</v>
+      </c>
+      <c r="F137">
+        <v>1371</v>
+      </c>
+      <c r="G137">
+        <v>328</v>
+      </c>
       <c r="H137" t="b">
         <v>0</v>
+      </c>
+      <c r="I137">
+        <v>33</v>
+      </c>
+      <c r="J137">
+        <v>6</v>
       </c>
       <c r="K137" t="b">
         <v>0</v>
@@ -4422,8 +6163,23 @@
       <c r="D138" t="s">
         <v>208</v>
       </c>
+      <c r="E138">
+        <v>29</v>
+      </c>
+      <c r="F138">
+        <v>1371</v>
+      </c>
+      <c r="G138">
+        <v>328</v>
+      </c>
       <c r="H138" t="b">
         <v>0</v>
+      </c>
+      <c r="I138">
+        <v>33</v>
+      </c>
+      <c r="J138">
+        <v>6</v>
       </c>
       <c r="K138" t="b">
         <v>0</v>
@@ -4442,8 +6198,23 @@
       <c r="D139" t="s">
         <v>189</v>
       </c>
+      <c r="E139">
+        <v>29</v>
+      </c>
+      <c r="F139">
+        <v>1371</v>
+      </c>
+      <c r="G139">
+        <v>328</v>
+      </c>
       <c r="H139" t="b">
         <v>0</v>
+      </c>
+      <c r="I139">
+        <v>33</v>
+      </c>
+      <c r="J139">
+        <v>6</v>
       </c>
       <c r="K139" t="b">
         <v>0</v>
@@ -4462,8 +6233,23 @@
       <c r="D140" t="s">
         <v>209</v>
       </c>
+      <c r="E140">
+        <v>29</v>
+      </c>
+      <c r="F140">
+        <v>1371</v>
+      </c>
+      <c r="G140">
+        <v>328</v>
+      </c>
       <c r="H140" t="b">
         <v>0</v>
+      </c>
+      <c r="I140">
+        <v>33</v>
+      </c>
+      <c r="J140">
+        <v>6</v>
       </c>
       <c r="K140" t="b">
         <v>0</v>
@@ -4482,8 +6268,23 @@
       <c r="D141" t="s">
         <v>210</v>
       </c>
+      <c r="E141">
+        <v>29</v>
+      </c>
+      <c r="F141">
+        <v>1371</v>
+      </c>
+      <c r="G141">
+        <v>328</v>
+      </c>
       <c r="H141" t="b">
         <v>0</v>
+      </c>
+      <c r="I141">
+        <v>33</v>
+      </c>
+      <c r="J141">
+        <v>6</v>
       </c>
       <c r="K141" t="b">
         <v>0</v>
@@ -4502,8 +6303,23 @@
       <c r="D142" t="s">
         <v>211</v>
       </c>
+      <c r="E142">
+        <v>29</v>
+      </c>
+      <c r="F142">
+        <v>1371</v>
+      </c>
+      <c r="G142">
+        <v>328</v>
+      </c>
       <c r="H142" t="b">
         <v>0</v>
+      </c>
+      <c r="I142">
+        <v>33</v>
+      </c>
+      <c r="J142">
+        <v>6</v>
       </c>
       <c r="K142" t="b">
         <v>0</v>
@@ -4522,8 +6338,23 @@
       <c r="D143" t="s">
         <v>212</v>
       </c>
+      <c r="E143">
+        <v>29</v>
+      </c>
+      <c r="F143">
+        <v>1371</v>
+      </c>
+      <c r="G143">
+        <v>328</v>
+      </c>
       <c r="H143" t="b">
         <v>0</v>
+      </c>
+      <c r="I143">
+        <v>33</v>
+      </c>
+      <c r="J143">
+        <v>6</v>
       </c>
       <c r="K143" t="b">
         <v>0</v>
@@ -4542,8 +6373,23 @@
       <c r="D144" t="s">
         <v>213</v>
       </c>
+      <c r="E144">
+        <v>29</v>
+      </c>
+      <c r="F144">
+        <v>1371</v>
+      </c>
+      <c r="G144">
+        <v>328</v>
+      </c>
       <c r="H144" t="b">
         <v>0</v>
+      </c>
+      <c r="I144">
+        <v>33</v>
+      </c>
+      <c r="J144">
+        <v>6</v>
       </c>
       <c r="K144" t="b">
         <v>0</v>
@@ -4562,8 +6408,23 @@
       <c r="D145" t="s">
         <v>214</v>
       </c>
+      <c r="E145">
+        <v>29</v>
+      </c>
+      <c r="F145">
+        <v>1371</v>
+      </c>
+      <c r="G145">
+        <v>328</v>
+      </c>
       <c r="H145" t="b">
         <v>0</v>
+      </c>
+      <c r="I145">
+        <v>33</v>
+      </c>
+      <c r="J145">
+        <v>6</v>
       </c>
       <c r="K145" s="1" t="b">
         <v>0</v>
@@ -4582,8 +6443,23 @@
       <c r="D146" t="s">
         <v>215</v>
       </c>
+      <c r="E146">
+        <v>29</v>
+      </c>
+      <c r="F146">
+        <v>1371</v>
+      </c>
+      <c r="G146">
+        <v>328</v>
+      </c>
       <c r="H146" t="b">
         <v>0</v>
+      </c>
+      <c r="I146">
+        <v>33</v>
+      </c>
+      <c r="J146">
+        <v>6</v>
       </c>
       <c r="K146" t="b">
         <v>0</v>
@@ -4602,8 +6478,23 @@
       <c r="D147" t="s">
         <v>216</v>
       </c>
+      <c r="E147">
+        <v>29</v>
+      </c>
+      <c r="F147">
+        <v>1371</v>
+      </c>
+      <c r="G147">
+        <v>328</v>
+      </c>
       <c r="H147" t="b">
         <v>0</v>
+      </c>
+      <c r="I147">
+        <v>33</v>
+      </c>
+      <c r="J147">
+        <v>6</v>
       </c>
       <c r="K147" t="b">
         <v>0</v>
@@ -4622,8 +6513,23 @@
       <c r="D148" t="s">
         <v>189</v>
       </c>
+      <c r="E148">
+        <v>29</v>
+      </c>
+      <c r="F148">
+        <v>1371</v>
+      </c>
+      <c r="G148">
+        <v>328</v>
+      </c>
       <c r="H148" t="b">
         <v>0</v>
+      </c>
+      <c r="I148">
+        <v>33</v>
+      </c>
+      <c r="J148">
+        <v>6</v>
       </c>
       <c r="K148" t="b">
         <v>0</v>
@@ -4642,8 +6548,23 @@
       <c r="D149" t="s">
         <v>217</v>
       </c>
+      <c r="E149">
+        <v>29</v>
+      </c>
+      <c r="F149">
+        <v>1371</v>
+      </c>
+      <c r="G149">
+        <v>328</v>
+      </c>
       <c r="H149" t="b">
         <v>0</v>
+      </c>
+      <c r="I149">
+        <v>33</v>
+      </c>
+      <c r="J149">
+        <v>6</v>
       </c>
       <c r="K149" t="b">
         <v>0</v>
@@ -4662,8 +6583,23 @@
       <c r="D150" t="s">
         <v>218</v>
       </c>
+      <c r="E150">
+        <v>29</v>
+      </c>
+      <c r="F150">
+        <v>1371</v>
+      </c>
+      <c r="G150">
+        <v>328</v>
+      </c>
       <c r="H150" t="b">
         <v>0</v>
+      </c>
+      <c r="I150">
+        <v>33</v>
+      </c>
+      <c r="J150">
+        <v>6</v>
       </c>
       <c r="K150" t="b">
         <v>0</v>
@@ -4682,8 +6618,23 @@
       <c r="D151" t="s">
         <v>189</v>
       </c>
+      <c r="E151">
+        <v>29</v>
+      </c>
+      <c r="F151">
+        <v>1371</v>
+      </c>
+      <c r="G151">
+        <v>328</v>
+      </c>
       <c r="H151" t="b">
         <v>0</v>
+      </c>
+      <c r="I151">
+        <v>33</v>
+      </c>
+      <c r="J151">
+        <v>6</v>
       </c>
       <c r="K151" t="b">
         <v>0</v>
@@ -4702,8 +6653,23 @@
       <c r="D152" t="s">
         <v>219</v>
       </c>
+      <c r="E152">
+        <v>29</v>
+      </c>
+      <c r="F152">
+        <v>1371</v>
+      </c>
+      <c r="G152">
+        <v>328</v>
+      </c>
       <c r="H152" t="b">
         <v>0</v>
+      </c>
+      <c r="I152">
+        <v>33</v>
+      </c>
+      <c r="J152">
+        <v>6</v>
       </c>
       <c r="K152" t="b">
         <v>0</v>
@@ -4722,8 +6688,23 @@
       <c r="D153" t="s">
         <v>189</v>
       </c>
+      <c r="E153">
+        <v>29</v>
+      </c>
+      <c r="F153">
+        <v>1371</v>
+      </c>
+      <c r="G153">
+        <v>328</v>
+      </c>
       <c r="H153" t="b">
         <v>0</v>
+      </c>
+      <c r="I153">
+        <v>33</v>
+      </c>
+      <c r="J153">
+        <v>6</v>
       </c>
       <c r="K153" t="b">
         <v>0</v>
@@ -4742,8 +6723,23 @@
       <c r="D154" t="s">
         <v>220</v>
       </c>
+      <c r="E154">
+        <v>29</v>
+      </c>
+      <c r="F154">
+        <v>1371</v>
+      </c>
+      <c r="G154">
+        <v>328</v>
+      </c>
       <c r="H154" t="b">
         <v>0</v>
+      </c>
+      <c r="I154">
+        <v>33</v>
+      </c>
+      <c r="J154">
+        <v>6</v>
       </c>
       <c r="K154" t="b">
         <v>0</v>
@@ -4762,8 +6758,23 @@
       <c r="D155" t="s">
         <v>221</v>
       </c>
+      <c r="E155">
+        <v>29</v>
+      </c>
+      <c r="F155">
+        <v>1371</v>
+      </c>
+      <c r="G155">
+        <v>328</v>
+      </c>
       <c r="H155" t="b">
         <v>0</v>
+      </c>
+      <c r="I155">
+        <v>33</v>
+      </c>
+      <c r="J155">
+        <v>6</v>
       </c>
       <c r="K155" t="b">
         <v>0</v>
@@ -4782,8 +6793,23 @@
       <c r="D156" t="s">
         <v>222</v>
       </c>
+      <c r="E156">
+        <v>29</v>
+      </c>
+      <c r="F156">
+        <v>1371</v>
+      </c>
+      <c r="G156">
+        <v>328</v>
+      </c>
       <c r="H156" t="b">
         <v>0</v>
+      </c>
+      <c r="I156">
+        <v>33</v>
+      </c>
+      <c r="J156">
+        <v>6</v>
       </c>
       <c r="K156" t="b">
         <v>0</v>
@@ -4802,8 +6828,23 @@
       <c r="D157" t="s">
         <v>189</v>
       </c>
+      <c r="E157">
+        <v>29</v>
+      </c>
+      <c r="F157">
+        <v>1371</v>
+      </c>
+      <c r="G157">
+        <v>328</v>
+      </c>
       <c r="H157" t="b">
         <v>0</v>
+      </c>
+      <c r="I157">
+        <v>33</v>
+      </c>
+      <c r="J157">
+        <v>6</v>
       </c>
       <c r="K157" t="b">
         <v>0</v>
@@ -4822,8 +6863,23 @@
       <c r="D158" t="s">
         <v>223</v>
       </c>
+      <c r="E158">
+        <v>29</v>
+      </c>
+      <c r="F158">
+        <v>1371</v>
+      </c>
+      <c r="G158">
+        <v>328</v>
+      </c>
       <c r="H158" t="b">
         <v>0</v>
+      </c>
+      <c r="I158">
+        <v>33</v>
+      </c>
+      <c r="J158">
+        <v>6</v>
       </c>
       <c r="K158" t="b">
         <v>0</v>
@@ -4842,8 +6898,23 @@
       <c r="D159" t="s">
         <v>189</v>
       </c>
+      <c r="E159">
+        <v>29</v>
+      </c>
+      <c r="F159">
+        <v>1371</v>
+      </c>
+      <c r="G159">
+        <v>328</v>
+      </c>
       <c r="H159" t="b">
         <v>0</v>
+      </c>
+      <c r="I159">
+        <v>33</v>
+      </c>
+      <c r="J159">
+        <v>6</v>
       </c>
       <c r="K159" t="b">
         <v>0</v>
@@ -4862,8 +6933,23 @@
       <c r="D160" t="s">
         <v>8</v>
       </c>
+      <c r="E160">
+        <v>29</v>
+      </c>
+      <c r="F160">
+        <v>1371</v>
+      </c>
+      <c r="G160">
+        <v>328</v>
+      </c>
       <c r="H160" t="b">
         <v>1</v>
+      </c>
+      <c r="I160">
+        <v>33</v>
+      </c>
+      <c r="J160">
+        <v>6</v>
       </c>
       <c r="K160" t="b">
         <v>0</v>
@@ -4882,8 +6968,23 @@
       <c r="D161" t="s">
         <v>9</v>
       </c>
+      <c r="E161">
+        <v>29</v>
+      </c>
+      <c r="F161">
+        <v>1371</v>
+      </c>
+      <c r="G161">
+        <v>328</v>
+      </c>
       <c r="H161" t="b">
         <v>1</v>
+      </c>
+      <c r="I161">
+        <v>33</v>
+      </c>
+      <c r="J161">
+        <v>6</v>
       </c>
       <c r="K161" t="b">
         <v>0</v>
@@ -4902,8 +7003,23 @@
       <c r="D162" t="s">
         <v>10</v>
       </c>
+      <c r="E162">
+        <v>29</v>
+      </c>
+      <c r="F162">
+        <v>1371</v>
+      </c>
+      <c r="G162">
+        <v>328</v>
+      </c>
       <c r="H162" t="b">
         <v>1</v>
+      </c>
+      <c r="I162">
+        <v>33</v>
+      </c>
+      <c r="J162">
+        <v>6</v>
       </c>
       <c r="K162" t="b">
         <v>0</v>
@@ -4922,8 +7038,23 @@
       <c r="D163" t="s">
         <v>11</v>
       </c>
+      <c r="E163">
+        <v>29</v>
+      </c>
+      <c r="F163">
+        <v>1371</v>
+      </c>
+      <c r="G163">
+        <v>328</v>
+      </c>
       <c r="H163" t="b">
         <v>1</v>
+      </c>
+      <c r="I163">
+        <v>33</v>
+      </c>
+      <c r="J163">
+        <v>6</v>
       </c>
       <c r="K163" t="b">
         <v>0</v>
@@ -4942,8 +7073,23 @@
       <c r="D164" t="s">
         <v>12</v>
       </c>
+      <c r="E164">
+        <v>29</v>
+      </c>
+      <c r="F164">
+        <v>1371</v>
+      </c>
+      <c r="G164">
+        <v>328</v>
+      </c>
       <c r="H164" t="b">
         <v>1</v>
+      </c>
+      <c r="I164">
+        <v>33</v>
+      </c>
+      <c r="J164">
+        <v>6</v>
       </c>
       <c r="K164" t="b">
         <v>0</v>
@@ -4962,8 +7108,23 @@
       <c r="D165" t="s">
         <v>13</v>
       </c>
+      <c r="E165">
+        <v>29</v>
+      </c>
+      <c r="F165">
+        <v>1371</v>
+      </c>
+      <c r="G165">
+        <v>328</v>
+      </c>
       <c r="H165" t="b">
         <v>1</v>
+      </c>
+      <c r="I165">
+        <v>33</v>
+      </c>
+      <c r="J165">
+        <v>6</v>
       </c>
       <c r="K165" t="b">
         <v>0</v>
@@ -4982,8 +7143,23 @@
       <c r="D166" t="s">
         <v>14</v>
       </c>
+      <c r="E166">
+        <v>29</v>
+      </c>
+      <c r="F166">
+        <v>1371</v>
+      </c>
+      <c r="G166">
+        <v>328</v>
+      </c>
       <c r="H166" t="b">
         <v>1</v>
+      </c>
+      <c r="I166">
+        <v>33</v>
+      </c>
+      <c r="J166">
+        <v>6</v>
       </c>
       <c r="K166" t="b">
         <v>0</v>
@@ -5002,8 +7178,23 @@
       <c r="D167" t="s">
         <v>15</v>
       </c>
+      <c r="E167">
+        <v>29</v>
+      </c>
+      <c r="F167">
+        <v>1371</v>
+      </c>
+      <c r="G167">
+        <v>328</v>
+      </c>
       <c r="H167" t="b">
         <v>1</v>
+      </c>
+      <c r="I167">
+        <v>33</v>
+      </c>
+      <c r="J167">
+        <v>6</v>
       </c>
       <c r="K167" t="b">
         <v>1</v>
@@ -5022,8 +7213,23 @@
       <c r="D168" t="s">
         <v>16</v>
       </c>
+      <c r="E168">
+        <v>29</v>
+      </c>
+      <c r="F168">
+        <v>1371</v>
+      </c>
+      <c r="G168">
+        <v>328</v>
+      </c>
       <c r="H168" t="b">
         <v>1</v>
+      </c>
+      <c r="I168">
+        <v>33</v>
+      </c>
+      <c r="J168">
+        <v>6</v>
       </c>
       <c r="K168" t="b">
         <v>1</v>
@@ -5042,8 +7248,23 @@
       <c r="D169" t="s">
         <v>17</v>
       </c>
+      <c r="E169">
+        <v>29</v>
+      </c>
+      <c r="F169">
+        <v>1371</v>
+      </c>
+      <c r="G169">
+        <v>328</v>
+      </c>
       <c r="H169" t="b">
         <v>1</v>
+      </c>
+      <c r="I169">
+        <v>33</v>
+      </c>
+      <c r="J169">
+        <v>6</v>
       </c>
       <c r="K169" t="b">
         <v>1</v>
@@ -5062,8 +7283,23 @@
       <c r="D170" t="s">
         <v>18</v>
       </c>
+      <c r="E170">
+        <v>29</v>
+      </c>
+      <c r="F170">
+        <v>1371</v>
+      </c>
+      <c r="G170">
+        <v>328</v>
+      </c>
       <c r="H170" t="b">
         <v>1</v>
+      </c>
+      <c r="I170">
+        <v>33</v>
+      </c>
+      <c r="J170">
+        <v>6</v>
       </c>
       <c r="K170" t="b">
         <v>0</v>
@@ -5082,8 +7318,23 @@
       <c r="D171" t="s">
         <v>19</v>
       </c>
+      <c r="E171">
+        <v>29</v>
+      </c>
+      <c r="F171">
+        <v>1371</v>
+      </c>
+      <c r="G171">
+        <v>328</v>
+      </c>
       <c r="H171" t="b">
         <v>1</v>
+      </c>
+      <c r="I171">
+        <v>33</v>
+      </c>
+      <c r="J171">
+        <v>6</v>
       </c>
       <c r="K171" t="b">
         <v>0</v>
@@ -5102,8 +7353,23 @@
       <c r="D172" t="s">
         <v>20</v>
       </c>
+      <c r="E172">
+        <v>29</v>
+      </c>
+      <c r="F172">
+        <v>1371</v>
+      </c>
+      <c r="G172">
+        <v>328</v>
+      </c>
       <c r="H172" t="b">
         <v>1</v>
+      </c>
+      <c r="I172">
+        <v>33</v>
+      </c>
+      <c r="J172">
+        <v>6</v>
       </c>
       <c r="K172" t="b">
         <v>0</v>
@@ -5122,8 +7388,23 @@
       <c r="D173" t="s">
         <v>21</v>
       </c>
+      <c r="E173">
+        <v>29</v>
+      </c>
+      <c r="F173">
+        <v>1371</v>
+      </c>
+      <c r="G173">
+        <v>328</v>
+      </c>
       <c r="H173" t="b">
         <v>1</v>
+      </c>
+      <c r="I173">
+        <v>33</v>
+      </c>
+      <c r="J173">
+        <v>6</v>
       </c>
       <c r="K173" t="b">
         <v>0</v>
@@ -5142,8 +7423,23 @@
       <c r="D174" t="s">
         <v>22</v>
       </c>
+      <c r="E174">
+        <v>29</v>
+      </c>
+      <c r="F174">
+        <v>1371</v>
+      </c>
+      <c r="G174">
+        <v>328</v>
+      </c>
       <c r="H174" t="b">
         <v>1</v>
+      </c>
+      <c r="I174">
+        <v>33</v>
+      </c>
+      <c r="J174">
+        <v>6</v>
       </c>
       <c r="K174" t="b">
         <v>0</v>
@@ -5162,8 +7458,23 @@
       <c r="D175" t="s">
         <v>23</v>
       </c>
+      <c r="E175">
+        <v>29</v>
+      </c>
+      <c r="F175">
+        <v>1371</v>
+      </c>
+      <c r="G175">
+        <v>328</v>
+      </c>
       <c r="H175" t="b">
         <v>1</v>
+      </c>
+      <c r="I175">
+        <v>33</v>
+      </c>
+      <c r="J175">
+        <v>6</v>
       </c>
       <c r="K175" t="b">
         <v>0</v>
@@ -5182,8 +7493,23 @@
       <c r="D176" t="s">
         <v>24</v>
       </c>
+      <c r="E176">
+        <v>29</v>
+      </c>
+      <c r="F176">
+        <v>1371</v>
+      </c>
+      <c r="G176">
+        <v>328</v>
+      </c>
       <c r="H176" t="b">
         <v>1</v>
+      </c>
+      <c r="I176">
+        <v>33</v>
+      </c>
+      <c r="J176">
+        <v>6</v>
       </c>
       <c r="K176" t="b">
         <v>0</v>
@@ -5202,8 +7528,23 @@
       <c r="D177" t="s">
         <v>25</v>
       </c>
+      <c r="E177">
+        <v>29</v>
+      </c>
+      <c r="F177">
+        <v>1371</v>
+      </c>
+      <c r="G177">
+        <v>328</v>
+      </c>
       <c r="H177" t="b">
         <v>1</v>
+      </c>
+      <c r="I177">
+        <v>33</v>
+      </c>
+      <c r="J177">
+        <v>6</v>
       </c>
       <c r="K177" t="b">
         <v>1</v>
@@ -5222,8 +7563,23 @@
       <c r="D178" t="s">
         <v>26</v>
       </c>
+      <c r="E178">
+        <v>29</v>
+      </c>
+      <c r="F178">
+        <v>1371</v>
+      </c>
+      <c r="G178">
+        <v>328</v>
+      </c>
       <c r="H178" t="b">
         <v>1</v>
+      </c>
+      <c r="I178">
+        <v>33</v>
+      </c>
+      <c r="J178">
+        <v>6</v>
       </c>
       <c r="K178" t="b">
         <v>0</v>
@@ -5242,8 +7598,23 @@
       <c r="D179" t="s">
         <v>27</v>
       </c>
+      <c r="E179">
+        <v>29</v>
+      </c>
+      <c r="F179">
+        <v>1371</v>
+      </c>
+      <c r="G179">
+        <v>328</v>
+      </c>
       <c r="H179" t="b">
         <v>1</v>
+      </c>
+      <c r="I179">
+        <v>33</v>
+      </c>
+      <c r="J179">
+        <v>6</v>
       </c>
       <c r="K179" t="b">
         <v>1</v>
@@ -5262,8 +7633,23 @@
       <c r="D180" t="s">
         <v>28</v>
       </c>
+      <c r="E180">
+        <v>29</v>
+      </c>
+      <c r="F180">
+        <v>1371</v>
+      </c>
+      <c r="G180">
+        <v>328</v>
+      </c>
       <c r="H180" t="b">
         <v>1</v>
+      </c>
+      <c r="I180">
+        <v>33</v>
+      </c>
+      <c r="J180">
+        <v>6</v>
       </c>
       <c r="K180" t="b">
         <v>0</v>
@@ -5282,8 +7668,23 @@
       <c r="D181" t="s">
         <v>29</v>
       </c>
+      <c r="E181">
+        <v>29</v>
+      </c>
+      <c r="F181">
+        <v>1371</v>
+      </c>
+      <c r="G181">
+        <v>328</v>
+      </c>
       <c r="H181" t="b">
         <v>1</v>
+      </c>
+      <c r="I181">
+        <v>33</v>
+      </c>
+      <c r="J181">
+        <v>6</v>
       </c>
       <c r="K181" t="b">
         <v>0</v>
@@ -5302,8 +7703,23 @@
       <c r="D182" t="s">
         <v>30</v>
       </c>
+      <c r="E182">
+        <v>29</v>
+      </c>
+      <c r="F182">
+        <v>1371</v>
+      </c>
+      <c r="G182">
+        <v>328</v>
+      </c>
       <c r="H182" t="b">
         <v>1</v>
+      </c>
+      <c r="I182">
+        <v>33</v>
+      </c>
+      <c r="J182">
+        <v>6</v>
       </c>
       <c r="K182" t="b">
         <v>0</v>
@@ -5322,8 +7738,23 @@
       <c r="D183" t="s">
         <v>31</v>
       </c>
+      <c r="E183">
+        <v>29</v>
+      </c>
+      <c r="F183">
+        <v>1371</v>
+      </c>
+      <c r="G183">
+        <v>328</v>
+      </c>
       <c r="H183" t="b">
         <v>1</v>
+      </c>
+      <c r="I183">
+        <v>33</v>
+      </c>
+      <c r="J183">
+        <v>6</v>
       </c>
       <c r="K183" t="b">
         <v>0</v>
@@ -5342,8 +7773,23 @@
       <c r="D184" t="s">
         <v>224</v>
       </c>
+      <c r="E184">
+        <v>29</v>
+      </c>
+      <c r="F184">
+        <v>1371</v>
+      </c>
+      <c r="G184">
+        <v>328</v>
+      </c>
       <c r="H184" t="b">
         <v>0</v>
+      </c>
+      <c r="I184">
+        <v>33</v>
+      </c>
+      <c r="J184">
+        <v>6</v>
       </c>
       <c r="K184" t="b">
         <v>0</v>
@@ -5362,8 +7808,23 @@
       <c r="D185" t="s">
         <v>225</v>
       </c>
+      <c r="E185">
+        <v>29</v>
+      </c>
+      <c r="F185">
+        <v>1371</v>
+      </c>
+      <c r="G185">
+        <v>328</v>
+      </c>
       <c r="H185" t="b">
         <v>0</v>
+      </c>
+      <c r="I185">
+        <v>33</v>
+      </c>
+      <c r="J185">
+        <v>6</v>
       </c>
       <c r="K185" t="b">
         <v>0</v>
@@ -5382,8 +7843,23 @@
       <c r="D186" t="s">
         <v>226</v>
       </c>
+      <c r="E186">
+        <v>29</v>
+      </c>
+      <c r="F186">
+        <v>1371</v>
+      </c>
+      <c r="G186">
+        <v>328</v>
+      </c>
       <c r="H186" t="b">
         <v>0</v>
+      </c>
+      <c r="I186">
+        <v>33</v>
+      </c>
+      <c r="J186">
+        <v>6</v>
       </c>
       <c r="K186" t="b">
         <v>0</v>
@@ -5402,8 +7878,23 @@
       <c r="D187" t="s">
         <v>227</v>
       </c>
+      <c r="E187">
+        <v>29</v>
+      </c>
+      <c r="F187">
+        <v>1371</v>
+      </c>
+      <c r="G187">
+        <v>328</v>
+      </c>
       <c r="H187" t="b">
         <v>0</v>
+      </c>
+      <c r="I187">
+        <v>33</v>
+      </c>
+      <c r="J187">
+        <v>6</v>
       </c>
       <c r="K187" s="1" t="b">
         <v>0</v>
@@ -5422,8 +7913,23 @@
       <c r="D188" t="s">
         <v>228</v>
       </c>
+      <c r="E188">
+        <v>29</v>
+      </c>
+      <c r="F188">
+        <v>1371</v>
+      </c>
+      <c r="G188">
+        <v>328</v>
+      </c>
       <c r="H188" t="b">
         <v>0</v>
+      </c>
+      <c r="I188">
+        <v>33</v>
+      </c>
+      <c r="J188">
+        <v>6</v>
       </c>
       <c r="K188" t="b">
         <v>0</v>
@@ -5442,8 +7948,23 @@
       <c r="D189" t="s">
         <v>229</v>
       </c>
+      <c r="E189">
+        <v>29</v>
+      </c>
+      <c r="F189">
+        <v>1371</v>
+      </c>
+      <c r="G189">
+        <v>328</v>
+      </c>
       <c r="H189" t="b">
         <v>0</v>
+      </c>
+      <c r="I189">
+        <v>33</v>
+      </c>
+      <c r="J189">
+        <v>6</v>
       </c>
       <c r="K189" t="b">
         <v>1</v>
@@ -5462,8 +7983,23 @@
       <c r="D190" t="s">
         <v>31</v>
       </c>
+      <c r="E190">
+        <v>29</v>
+      </c>
+      <c r="F190">
+        <v>1371</v>
+      </c>
+      <c r="G190">
+        <v>328</v>
+      </c>
       <c r="H190" t="b">
         <v>0</v>
+      </c>
+      <c r="I190">
+        <v>33</v>
+      </c>
+      <c r="J190">
+        <v>6</v>
       </c>
       <c r="K190" t="b">
         <v>0</v>
@@ -5482,8 +8018,23 @@
       <c r="D191" t="s">
         <v>230</v>
       </c>
+      <c r="E191">
+        <v>29</v>
+      </c>
+      <c r="F191">
+        <v>1371</v>
+      </c>
+      <c r="G191">
+        <v>328</v>
+      </c>
       <c r="H191" t="b">
         <v>0</v>
+      </c>
+      <c r="I191">
+        <v>33</v>
+      </c>
+      <c r="J191">
+        <v>6</v>
       </c>
       <c r="K191" t="b">
         <v>0</v>
@@ -5502,8 +8053,23 @@
       <c r="D192" t="s">
         <v>231</v>
       </c>
+      <c r="E192">
+        <v>29</v>
+      </c>
+      <c r="F192">
+        <v>1371</v>
+      </c>
+      <c r="G192">
+        <v>328</v>
+      </c>
       <c r="H192" t="b">
         <v>0</v>
+      </c>
+      <c r="I192">
+        <v>33</v>
+      </c>
+      <c r="J192">
+        <v>6</v>
       </c>
       <c r="K192" t="b">
         <v>0</v>
@@ -5522,8 +8088,23 @@
       <c r="D193" t="s">
         <v>232</v>
       </c>
+      <c r="E193">
+        <v>29</v>
+      </c>
+      <c r="F193">
+        <v>1371</v>
+      </c>
+      <c r="G193">
+        <v>328</v>
+      </c>
       <c r="H193" t="b">
         <v>0</v>
+      </c>
+      <c r="I193">
+        <v>33</v>
+      </c>
+      <c r="J193">
+        <v>6</v>
       </c>
       <c r="K193" t="b">
         <v>0</v>
@@ -5542,8 +8123,23 @@
       <c r="D194" t="s">
         <v>233</v>
       </c>
+      <c r="E194">
+        <v>29</v>
+      </c>
+      <c r="F194">
+        <v>1371</v>
+      </c>
+      <c r="G194">
+        <v>328</v>
+      </c>
       <c r="H194" t="b">
         <v>0</v>
+      </c>
+      <c r="I194">
+        <v>33</v>
+      </c>
+      <c r="J194">
+        <v>6</v>
       </c>
       <c r="K194" t="b">
         <v>0</v>
@@ -5562,8 +8158,23 @@
       <c r="D195" t="s">
         <v>234</v>
       </c>
+      <c r="E195">
+        <v>29</v>
+      </c>
+      <c r="F195">
+        <v>1371</v>
+      </c>
+      <c r="G195">
+        <v>328</v>
+      </c>
       <c r="H195" t="b">
         <v>0</v>
+      </c>
+      <c r="I195">
+        <v>33</v>
+      </c>
+      <c r="J195">
+        <v>6</v>
       </c>
       <c r="K195" t="b">
         <v>0</v>
@@ -5582,8 +8193,23 @@
       <c r="D196" t="s">
         <v>235</v>
       </c>
+      <c r="E196">
+        <v>29</v>
+      </c>
+      <c r="F196">
+        <v>1371</v>
+      </c>
+      <c r="G196">
+        <v>328</v>
+      </c>
       <c r="H196" t="b">
         <v>0</v>
+      </c>
+      <c r="I196">
+        <v>33</v>
+      </c>
+      <c r="J196">
+        <v>6</v>
       </c>
       <c r="K196" t="b">
         <v>0</v>
@@ -5602,8 +8228,23 @@
       <c r="D197" t="s">
         <v>236</v>
       </c>
+      <c r="E197">
+        <v>29</v>
+      </c>
+      <c r="F197">
+        <v>1371</v>
+      </c>
+      <c r="G197">
+        <v>328</v>
+      </c>
       <c r="H197" t="b">
         <v>0</v>
+      </c>
+      <c r="I197">
+        <v>33</v>
+      </c>
+      <c r="J197">
+        <v>6</v>
       </c>
       <c r="K197" t="b">
         <v>0</v>
@@ -5622,8 +8263,23 @@
       <c r="D198" t="s">
         <v>237</v>
       </c>
+      <c r="E198">
+        <v>29</v>
+      </c>
+      <c r="F198">
+        <v>1371</v>
+      </c>
+      <c r="G198">
+        <v>328</v>
+      </c>
       <c r="H198" t="b">
         <v>0</v>
+      </c>
+      <c r="I198">
+        <v>33</v>
+      </c>
+      <c r="J198">
+        <v>6</v>
       </c>
       <c r="K198" t="b">
         <v>0</v>
@@ -5642,8 +8298,23 @@
       <c r="D199" t="s">
         <v>238</v>
       </c>
+      <c r="E199">
+        <v>29</v>
+      </c>
+      <c r="F199">
+        <v>1371</v>
+      </c>
+      <c r="G199">
+        <v>328</v>
+      </c>
       <c r="H199" t="b">
         <v>0</v>
+      </c>
+      <c r="I199">
+        <v>33</v>
+      </c>
+      <c r="J199">
+        <v>6</v>
       </c>
       <c r="K199" t="b">
         <v>1</v>
@@ -5662,8 +8333,23 @@
       <c r="D200" t="s">
         <v>239</v>
       </c>
+      <c r="E200">
+        <v>29</v>
+      </c>
+      <c r="F200">
+        <v>1371</v>
+      </c>
+      <c r="G200">
+        <v>328</v>
+      </c>
       <c r="H200" t="b">
         <v>0</v>
+      </c>
+      <c r="I200">
+        <v>33</v>
+      </c>
+      <c r="J200">
+        <v>6</v>
       </c>
       <c r="K200" t="b">
         <v>0</v>
@@ -5682,8 +8368,23 @@
       <c r="D201" t="s">
         <v>240</v>
       </c>
+      <c r="E201">
+        <v>29</v>
+      </c>
+      <c r="F201">
+        <v>1371</v>
+      </c>
+      <c r="G201">
+        <v>328</v>
+      </c>
       <c r="H201" t="b">
         <v>0</v>
+      </c>
+      <c r="I201">
+        <v>33</v>
+      </c>
+      <c r="J201">
+        <v>6</v>
       </c>
       <c r="K201" t="b">
         <v>0</v>
@@ -5702,8 +8403,23 @@
       <c r="D202" t="s">
         <v>241</v>
       </c>
+      <c r="E202">
+        <v>29</v>
+      </c>
+      <c r="F202">
+        <v>1371</v>
+      </c>
+      <c r="G202">
+        <v>328</v>
+      </c>
       <c r="H202" t="b">
         <v>0</v>
+      </c>
+      <c r="I202">
+        <v>33</v>
+      </c>
+      <c r="J202">
+        <v>6</v>
       </c>
       <c r="K202" t="b">
         <v>0</v>
@@ -5722,8 +8438,23 @@
       <c r="D203" t="s">
         <v>242</v>
       </c>
+      <c r="E203">
+        <v>29</v>
+      </c>
+      <c r="F203">
+        <v>1371</v>
+      </c>
+      <c r="G203">
+        <v>328</v>
+      </c>
       <c r="H203" t="b">
         <v>0</v>
+      </c>
+      <c r="I203">
+        <v>33</v>
+      </c>
+      <c r="J203">
+        <v>6</v>
       </c>
       <c r="K203" t="b">
         <v>0</v>
@@ -5742,8 +8473,23 @@
       <c r="D204" t="s">
         <v>243</v>
       </c>
+      <c r="E204">
+        <v>29</v>
+      </c>
+      <c r="F204">
+        <v>1371</v>
+      </c>
+      <c r="G204">
+        <v>328</v>
+      </c>
       <c r="H204" t="b">
         <v>0</v>
+      </c>
+      <c r="I204">
+        <v>33</v>
+      </c>
+      <c r="J204">
+        <v>6</v>
       </c>
       <c r="K204" t="b">
         <v>0</v>
@@ -5762,8 +8508,23 @@
       <c r="D205" t="s">
         <v>244</v>
       </c>
+      <c r="E205">
+        <v>29</v>
+      </c>
+      <c r="F205">
+        <v>1371</v>
+      </c>
+      <c r="G205">
+        <v>328</v>
+      </c>
       <c r="H205" t="b">
         <v>0</v>
+      </c>
+      <c r="I205">
+        <v>33</v>
+      </c>
+      <c r="J205">
+        <v>6</v>
       </c>
       <c r="K205" t="b">
         <v>0</v>
@@ -5782,8 +8543,23 @@
       <c r="D206" t="s">
         <v>245</v>
       </c>
+      <c r="E206">
+        <v>29</v>
+      </c>
+      <c r="F206">
+        <v>1371</v>
+      </c>
+      <c r="G206">
+        <v>328</v>
+      </c>
       <c r="H206" t="b">
         <v>0</v>
+      </c>
+      <c r="I206">
+        <v>33</v>
+      </c>
+      <c r="J206">
+        <v>6</v>
       </c>
       <c r="K206" t="b">
         <v>0</v>
@@ -5802,8 +8578,23 @@
       <c r="D207" t="s">
         <v>246</v>
       </c>
+      <c r="E207">
+        <v>29</v>
+      </c>
+      <c r="F207">
+        <v>1371</v>
+      </c>
+      <c r="G207">
+        <v>328</v>
+      </c>
       <c r="H207" t="b">
         <v>0</v>
+      </c>
+      <c r="I207">
+        <v>33</v>
+      </c>
+      <c r="J207">
+        <v>6</v>
       </c>
       <c r="K207" t="b">
         <v>0</v>
@@ -5822,8 +8613,23 @@
       <c r="D208" t="s">
         <v>247</v>
       </c>
+      <c r="E208">
+        <v>29</v>
+      </c>
+      <c r="F208">
+        <v>1371</v>
+      </c>
+      <c r="G208">
+        <v>328</v>
+      </c>
       <c r="H208" t="b">
         <v>0</v>
+      </c>
+      <c r="I208">
+        <v>33</v>
+      </c>
+      <c r="J208">
+        <v>6</v>
       </c>
       <c r="K208" t="b">
         <v>0</v>
@@ -5842,8 +8648,23 @@
       <c r="D209" t="s">
         <v>248</v>
       </c>
+      <c r="E209">
+        <v>29</v>
+      </c>
+      <c r="F209">
+        <v>1371</v>
+      </c>
+      <c r="G209">
+        <v>328</v>
+      </c>
       <c r="H209" t="b">
         <v>0</v>
+      </c>
+      <c r="I209">
+        <v>33</v>
+      </c>
+      <c r="J209">
+        <v>6</v>
       </c>
       <c r="K209" t="b">
         <v>1</v>
@@ -5862,8 +8683,23 @@
       <c r="D210" t="s">
         <v>249</v>
       </c>
+      <c r="E210">
+        <v>29</v>
+      </c>
+      <c r="F210">
+        <v>1371</v>
+      </c>
+      <c r="G210">
+        <v>328</v>
+      </c>
       <c r="H210" t="b">
         <v>0</v>
+      </c>
+      <c r="I210">
+        <v>33</v>
+      </c>
+      <c r="J210">
+        <v>6</v>
       </c>
       <c r="K210" t="b">
         <v>0</v>
@@ -5882,8 +8718,23 @@
       <c r="D211" t="s">
         <v>250</v>
       </c>
+      <c r="E211">
+        <v>29</v>
+      </c>
+      <c r="F211">
+        <v>1371</v>
+      </c>
+      <c r="G211">
+        <v>328</v>
+      </c>
       <c r="H211" t="b">
         <v>0</v>
+      </c>
+      <c r="I211">
+        <v>33</v>
+      </c>
+      <c r="J211">
+        <v>6</v>
       </c>
       <c r="K211" t="b">
         <v>0</v>
@@ -5902,8 +8753,23 @@
       <c r="D212" t="s">
         <v>251</v>
       </c>
+      <c r="E212">
+        <v>29</v>
+      </c>
+      <c r="F212">
+        <v>1371</v>
+      </c>
+      <c r="G212">
+        <v>328</v>
+      </c>
       <c r="H212" t="b">
         <v>0</v>
+      </c>
+      <c r="I212">
+        <v>33</v>
+      </c>
+      <c r="J212">
+        <v>6</v>
       </c>
       <c r="K212" t="b">
         <v>0</v>
@@ -5922,8 +8788,23 @@
       <c r="D213" t="s">
         <v>252</v>
       </c>
+      <c r="E213">
+        <v>29</v>
+      </c>
+      <c r="F213">
+        <v>1371</v>
+      </c>
+      <c r="G213">
+        <v>328</v>
+      </c>
       <c r="H213" t="b">
         <v>0</v>
+      </c>
+      <c r="I213">
+        <v>33</v>
+      </c>
+      <c r="J213">
+        <v>6</v>
       </c>
       <c r="K213" t="b">
         <v>0</v>
@@ -5942,8 +8823,23 @@
       <c r="D214" t="s">
         <v>253</v>
       </c>
+      <c r="E214">
+        <v>29</v>
+      </c>
+      <c r="F214">
+        <v>1371</v>
+      </c>
+      <c r="G214">
+        <v>328</v>
+      </c>
       <c r="H214" t="b">
         <v>0</v>
+      </c>
+      <c r="I214">
+        <v>33</v>
+      </c>
+      <c r="J214">
+        <v>6</v>
       </c>
       <c r="K214" t="b">
         <v>1</v>
@@ -5962,8 +8858,23 @@
       <c r="D215" t="s">
         <v>254</v>
       </c>
+      <c r="E215">
+        <v>29</v>
+      </c>
+      <c r="F215">
+        <v>1371</v>
+      </c>
+      <c r="G215">
+        <v>328</v>
+      </c>
       <c r="H215" t="b">
         <v>0</v>
+      </c>
+      <c r="I215">
+        <v>33</v>
+      </c>
+      <c r="J215">
+        <v>6</v>
       </c>
       <c r="K215" t="b">
         <v>0</v>
@@ -5982,8 +8893,23 @@
       <c r="D216" t="s">
         <v>255</v>
       </c>
+      <c r="E216">
+        <v>29</v>
+      </c>
+      <c r="F216">
+        <v>1371</v>
+      </c>
+      <c r="G216">
+        <v>328</v>
+      </c>
       <c r="H216" t="b">
         <v>0</v>
+      </c>
+      <c r="I216">
+        <v>33</v>
+      </c>
+      <c r="J216">
+        <v>6</v>
       </c>
       <c r="K216" t="b">
         <v>0</v>
@@ -6002,8 +8928,23 @@
       <c r="D217" t="s">
         <v>256</v>
       </c>
+      <c r="E217">
+        <v>29</v>
+      </c>
+      <c r="F217">
+        <v>1371</v>
+      </c>
+      <c r="G217">
+        <v>328</v>
+      </c>
       <c r="H217" t="b">
         <v>0</v>
+      </c>
+      <c r="I217">
+        <v>33</v>
+      </c>
+      <c r="J217">
+        <v>6</v>
       </c>
       <c r="K217" t="b">
         <v>0</v>
@@ -6022,8 +8963,23 @@
       <c r="D218" t="s">
         <v>257</v>
       </c>
+      <c r="E218">
+        <v>29</v>
+      </c>
+      <c r="F218">
+        <v>1371</v>
+      </c>
+      <c r="G218">
+        <v>328</v>
+      </c>
       <c r="H218" t="b">
         <v>0</v>
+      </c>
+      <c r="I218">
+        <v>33</v>
+      </c>
+      <c r="J218">
+        <v>6</v>
       </c>
       <c r="K218" t="b">
         <v>0</v>
@@ -6042,8 +8998,23 @@
       <c r="D219" t="s">
         <v>258</v>
       </c>
+      <c r="E219">
+        <v>29</v>
+      </c>
+      <c r="F219">
+        <v>1371</v>
+      </c>
+      <c r="G219">
+        <v>328</v>
+      </c>
       <c r="H219" t="b">
         <v>0</v>
+      </c>
+      <c r="I219">
+        <v>33</v>
+      </c>
+      <c r="J219">
+        <v>6</v>
       </c>
       <c r="K219" t="b">
         <v>0</v>
@@ -6062,8 +9033,23 @@
       <c r="D220" t="s">
         <v>259</v>
       </c>
+      <c r="E220">
+        <v>29</v>
+      </c>
+      <c r="F220">
+        <v>1371</v>
+      </c>
+      <c r="G220">
+        <v>328</v>
+      </c>
       <c r="H220" t="b">
         <v>0</v>
+      </c>
+      <c r="I220">
+        <v>33</v>
+      </c>
+      <c r="J220">
+        <v>6</v>
       </c>
       <c r="K220" t="b">
         <v>0</v>
@@ -6082,8 +9068,23 @@
       <c r="D221" t="s">
         <v>260</v>
       </c>
+      <c r="E221">
+        <v>29</v>
+      </c>
+      <c r="F221">
+        <v>1371</v>
+      </c>
+      <c r="G221">
+        <v>328</v>
+      </c>
       <c r="H221" t="b">
         <v>0</v>
+      </c>
+      <c r="I221">
+        <v>33</v>
+      </c>
+      <c r="J221">
+        <v>6</v>
       </c>
       <c r="K221" t="b">
         <v>0</v>
@@ -6102,8 +9103,23 @@
       <c r="D222" t="s">
         <v>261</v>
       </c>
+      <c r="E222">
+        <v>29</v>
+      </c>
+      <c r="F222">
+        <v>1371</v>
+      </c>
+      <c r="G222">
+        <v>328</v>
+      </c>
       <c r="H222" t="b">
         <v>0</v>
+      </c>
+      <c r="I222">
+        <v>33</v>
+      </c>
+      <c r="J222">
+        <v>6</v>
       </c>
       <c r="K222" t="b">
         <v>0</v>
@@ -6122,8 +9138,23 @@
       <c r="D223" t="s">
         <v>262</v>
       </c>
+      <c r="E223">
+        <v>29</v>
+      </c>
+      <c r="F223">
+        <v>1371</v>
+      </c>
+      <c r="G223">
+        <v>328</v>
+      </c>
       <c r="H223" t="b">
         <v>0</v>
+      </c>
+      <c r="I223">
+        <v>33</v>
+      </c>
+      <c r="J223">
+        <v>6</v>
       </c>
       <c r="K223" t="b">
         <v>0</v>
@@ -6142,8 +9173,23 @@
       <c r="D224" t="s">
         <v>263</v>
       </c>
+      <c r="E224">
+        <v>29</v>
+      </c>
+      <c r="F224">
+        <v>1371</v>
+      </c>
+      <c r="G224">
+        <v>328</v>
+      </c>
       <c r="H224" t="b">
         <v>0</v>
+      </c>
+      <c r="I224">
+        <v>33</v>
+      </c>
+      <c r="J224">
+        <v>6</v>
       </c>
       <c r="K224" t="b">
         <v>0</v>
@@ -6162,8 +9208,23 @@
       <c r="D225" t="s">
         <v>264</v>
       </c>
+      <c r="E225">
+        <v>29</v>
+      </c>
+      <c r="F225">
+        <v>1371</v>
+      </c>
+      <c r="G225">
+        <v>328</v>
+      </c>
       <c r="H225" t="b">
         <v>0</v>
+      </c>
+      <c r="I225">
+        <v>33</v>
+      </c>
+      <c r="J225">
+        <v>6</v>
       </c>
       <c r="K225" t="b">
         <v>0</v>
@@ -6182,8 +9243,23 @@
       <c r="D226" t="s">
         <v>265</v>
       </c>
+      <c r="E226">
+        <v>29</v>
+      </c>
+      <c r="F226">
+        <v>1371</v>
+      </c>
+      <c r="G226">
+        <v>328</v>
+      </c>
       <c r="H226" t="b">
         <v>0</v>
+      </c>
+      <c r="I226">
+        <v>33</v>
+      </c>
+      <c r="J226">
+        <v>6</v>
       </c>
       <c r="K226" t="b">
         <v>0</v>
@@ -6202,8 +9278,23 @@
       <c r="D227" t="s">
         <v>266</v>
       </c>
+      <c r="E227">
+        <v>29</v>
+      </c>
+      <c r="F227">
+        <v>1371</v>
+      </c>
+      <c r="G227">
+        <v>328</v>
+      </c>
       <c r="H227" t="b">
         <v>0</v>
+      </c>
+      <c r="I227">
+        <v>33</v>
+      </c>
+      <c r="J227">
+        <v>6</v>
       </c>
       <c r="K227" t="b">
         <v>1</v>
@@ -6222,8 +9313,23 @@
       <c r="D228" t="s">
         <v>267</v>
       </c>
+      <c r="E228">
+        <v>29</v>
+      </c>
+      <c r="F228">
+        <v>1371</v>
+      </c>
+      <c r="G228">
+        <v>328</v>
+      </c>
       <c r="H228" t="b">
         <v>0</v>
+      </c>
+      <c r="I228">
+        <v>33</v>
+      </c>
+      <c r="J228">
+        <v>6</v>
       </c>
       <c r="K228" t="b">
         <v>1</v>
@@ -6242,8 +9348,23 @@
       <c r="D229" t="s">
         <v>268</v>
       </c>
+      <c r="E229">
+        <v>29</v>
+      </c>
+      <c r="F229">
+        <v>1371</v>
+      </c>
+      <c r="G229">
+        <v>328</v>
+      </c>
       <c r="H229" t="b">
         <v>0</v>
+      </c>
+      <c r="I229">
+        <v>33</v>
+      </c>
+      <c r="J229">
+        <v>6</v>
       </c>
       <c r="K229" t="b">
         <v>0</v>
@@ -6262,8 +9383,23 @@
       <c r="D230" t="s">
         <v>269</v>
       </c>
+      <c r="E230">
+        <v>29</v>
+      </c>
+      <c r="F230">
+        <v>1371</v>
+      </c>
+      <c r="G230">
+        <v>328</v>
+      </c>
       <c r="H230" t="b">
         <v>0</v>
+      </c>
+      <c r="I230">
+        <v>33</v>
+      </c>
+      <c r="J230">
+        <v>6</v>
       </c>
       <c r="K230" t="b">
         <v>0</v>
@@ -6282,8 +9418,23 @@
       <c r="D231" t="s">
         <v>270</v>
       </c>
+      <c r="E231">
+        <v>29</v>
+      </c>
+      <c r="F231">
+        <v>1371</v>
+      </c>
+      <c r="G231">
+        <v>328</v>
+      </c>
       <c r="H231" t="b">
         <v>0</v>
+      </c>
+      <c r="I231">
+        <v>33</v>
+      </c>
+      <c r="J231">
+        <v>6</v>
       </c>
       <c r="K231" t="b">
         <v>0</v>
@@ -6302,8 +9453,23 @@
       <c r="D232" t="s">
         <v>271</v>
       </c>
+      <c r="E232">
+        <v>29</v>
+      </c>
+      <c r="F232">
+        <v>1371</v>
+      </c>
+      <c r="G232">
+        <v>328</v>
+      </c>
       <c r="H232" t="b">
         <v>0</v>
+      </c>
+      <c r="I232">
+        <v>33</v>
+      </c>
+      <c r="J232">
+        <v>6</v>
       </c>
       <c r="K232" t="b">
         <v>0</v>
@@ -6322,8 +9488,23 @@
       <c r="D233" t="s">
         <v>272</v>
       </c>
+      <c r="E233">
+        <v>29</v>
+      </c>
+      <c r="F233">
+        <v>1371</v>
+      </c>
+      <c r="G233">
+        <v>328</v>
+      </c>
       <c r="H233" t="b">
         <v>0</v>
+      </c>
+      <c r="I233">
+        <v>33</v>
+      </c>
+      <c r="J233">
+        <v>6</v>
       </c>
       <c r="K233" t="b">
         <v>1</v>
@@ -6342,8 +9523,23 @@
       <c r="D234" t="s">
         <v>273</v>
       </c>
+      <c r="E234">
+        <v>29</v>
+      </c>
+      <c r="F234">
+        <v>1371</v>
+      </c>
+      <c r="G234">
+        <v>328</v>
+      </c>
       <c r="H234" t="b">
         <v>0</v>
+      </c>
+      <c r="I234">
+        <v>33</v>
+      </c>
+      <c r="J234">
+        <v>6</v>
       </c>
       <c r="K234" t="b">
         <v>0</v>
@@ -6362,8 +9558,23 @@
       <c r="D235" t="s">
         <v>274</v>
       </c>
+      <c r="E235">
+        <v>29</v>
+      </c>
+      <c r="F235">
+        <v>1371</v>
+      </c>
+      <c r="G235">
+        <v>328</v>
+      </c>
       <c r="H235" t="b">
         <v>0</v>
+      </c>
+      <c r="I235">
+        <v>33</v>
+      </c>
+      <c r="J235">
+        <v>6</v>
       </c>
       <c r="K235" t="b">
         <v>0</v>
@@ -6382,8 +9593,23 @@
       <c r="D236" t="s">
         <v>275</v>
       </c>
+      <c r="E236">
+        <v>29</v>
+      </c>
+      <c r="F236">
+        <v>1371</v>
+      </c>
+      <c r="G236">
+        <v>328</v>
+      </c>
       <c r="H236" t="b">
         <v>0</v>
+      </c>
+      <c r="I236">
+        <v>33</v>
+      </c>
+      <c r="J236">
+        <v>6</v>
       </c>
       <c r="K236" t="b">
         <v>0</v>
@@ -6402,8 +9628,23 @@
       <c r="D237" t="s">
         <v>276</v>
       </c>
+      <c r="E237">
+        <v>29</v>
+      </c>
+      <c r="F237">
+        <v>1371</v>
+      </c>
+      <c r="G237">
+        <v>328</v>
+      </c>
       <c r="H237" t="b">
         <v>0</v>
+      </c>
+      <c r="I237">
+        <v>33</v>
+      </c>
+      <c r="J237">
+        <v>6</v>
       </c>
       <c r="K237" t="b">
         <v>0</v>
@@ -6422,8 +9663,23 @@
       <c r="D238" t="s">
         <v>277</v>
       </c>
+      <c r="E238">
+        <v>29</v>
+      </c>
+      <c r="F238">
+        <v>1371</v>
+      </c>
+      <c r="G238">
+        <v>328</v>
+      </c>
       <c r="H238" t="b">
         <v>0</v>
+      </c>
+      <c r="I238">
+        <v>33</v>
+      </c>
+      <c r="J238">
+        <v>6</v>
       </c>
       <c r="K238" t="b">
         <v>0</v>
@@ -6442,8 +9698,23 @@
       <c r="D239" t="s">
         <v>278</v>
       </c>
+      <c r="E239">
+        <v>29</v>
+      </c>
+      <c r="F239">
+        <v>1371</v>
+      </c>
+      <c r="G239">
+        <v>328</v>
+      </c>
       <c r="H239" t="b">
         <v>0</v>
+      </c>
+      <c r="I239">
+        <v>33</v>
+      </c>
+      <c r="J239">
+        <v>6</v>
       </c>
       <c r="K239" t="b">
         <v>0</v>
@@ -6462,8 +9733,23 @@
       <c r="D240" t="s">
         <v>279</v>
       </c>
+      <c r="E240">
+        <v>29</v>
+      </c>
+      <c r="F240">
+        <v>1371</v>
+      </c>
+      <c r="G240">
+        <v>328</v>
+      </c>
       <c r="H240" t="b">
         <v>0</v>
+      </c>
+      <c r="I240">
+        <v>33</v>
+      </c>
+      <c r="J240">
+        <v>6</v>
       </c>
       <c r="K240" t="b">
         <v>0</v>
@@ -6482,8 +9768,23 @@
       <c r="D241" t="s">
         <v>280</v>
       </c>
+      <c r="E241">
+        <v>29</v>
+      </c>
+      <c r="F241">
+        <v>1371</v>
+      </c>
+      <c r="G241">
+        <v>328</v>
+      </c>
       <c r="H241" t="b">
         <v>0</v>
+      </c>
+      <c r="I241">
+        <v>33</v>
+      </c>
+      <c r="J241">
+        <v>6</v>
       </c>
       <c r="K241" t="b">
         <v>0</v>
@@ -6502,8 +9803,23 @@
       <c r="D242" t="s">
         <v>281</v>
       </c>
+      <c r="E242">
+        <v>29</v>
+      </c>
+      <c r="F242">
+        <v>1371</v>
+      </c>
+      <c r="G242">
+        <v>328</v>
+      </c>
       <c r="H242" t="b">
         <v>0</v>
+      </c>
+      <c r="I242">
+        <v>33</v>
+      </c>
+      <c r="J242">
+        <v>6</v>
       </c>
       <c r="K242" t="b">
         <v>0</v>
@@ -6522,8 +9838,23 @@
       <c r="D243" t="s">
         <v>282</v>
       </c>
+      <c r="E243">
+        <v>29</v>
+      </c>
+      <c r="F243">
+        <v>1371</v>
+      </c>
+      <c r="G243">
+        <v>328</v>
+      </c>
       <c r="H243" t="b">
         <v>0</v>
+      </c>
+      <c r="I243">
+        <v>33</v>
+      </c>
+      <c r="J243">
+        <v>6</v>
       </c>
       <c r="K243" t="b">
         <v>0</v>
@@ -6542,8 +9873,23 @@
       <c r="D244" t="s">
         <v>283</v>
       </c>
+      <c r="E244">
+        <v>29</v>
+      </c>
+      <c r="F244">
+        <v>1371</v>
+      </c>
+      <c r="G244">
+        <v>328</v>
+      </c>
       <c r="H244" t="b">
         <v>0</v>
+      </c>
+      <c r="I244">
+        <v>33</v>
+      </c>
+      <c r="J244">
+        <v>6</v>
       </c>
       <c r="K244" t="b">
         <v>1</v>
@@ -6562,8 +9908,23 @@
       <c r="D245" t="s">
         <v>284</v>
       </c>
+      <c r="E245">
+        <v>29</v>
+      </c>
+      <c r="F245">
+        <v>1371</v>
+      </c>
+      <c r="G245">
+        <v>328</v>
+      </c>
       <c r="H245" t="b">
         <v>0</v>
+      </c>
+      <c r="I245">
+        <v>33</v>
+      </c>
+      <c r="J245">
+        <v>6</v>
       </c>
       <c r="K245" t="b">
         <v>0</v>
@@ -6582,8 +9943,23 @@
       <c r="D246" t="s">
         <v>285</v>
       </c>
+      <c r="E246">
+        <v>29</v>
+      </c>
+      <c r="F246">
+        <v>1371</v>
+      </c>
+      <c r="G246">
+        <v>328</v>
+      </c>
       <c r="H246" t="b">
         <v>0</v>
+      </c>
+      <c r="I246">
+        <v>33</v>
+      </c>
+      <c r="J246">
+        <v>6</v>
       </c>
       <c r="K246" t="b">
         <v>0</v>
@@ -6602,8 +9978,23 @@
       <c r="D247" t="s">
         <v>286</v>
       </c>
+      <c r="E247">
+        <v>29</v>
+      </c>
+      <c r="F247">
+        <v>1371</v>
+      </c>
+      <c r="G247">
+        <v>328</v>
+      </c>
       <c r="H247" t="b">
         <v>0</v>
+      </c>
+      <c r="I247">
+        <v>33</v>
+      </c>
+      <c r="J247">
+        <v>6</v>
       </c>
       <c r="K247" t="b">
         <v>0</v>
@@ -6622,8 +10013,23 @@
       <c r="D248" t="s">
         <v>287</v>
       </c>
+      <c r="E248">
+        <v>29</v>
+      </c>
+      <c r="F248">
+        <v>1371</v>
+      </c>
+      <c r="G248">
+        <v>328</v>
+      </c>
       <c r="H248" t="b">
         <v>0</v>
+      </c>
+      <c r="I248">
+        <v>33</v>
+      </c>
+      <c r="J248">
+        <v>6</v>
       </c>
       <c r="K248" t="b">
         <v>0</v>

--- a/Code_Smells.xlsx
+++ b/Code_Smells.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iscteiul365-my.sharepoint.com/personal/dfbcs_iscte-iul_pt/Documents/eclipse-workspace/ES-2Sem-2021-Grupo-5/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{B5760989-AF68-4A21-B397-4D29D5B702E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CECACAAB-5218-465B-922D-3D33F97D3ACD}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00B73718-A218-4BB5-A155-7549172451AD}"/>
+    <workbookView xWindow="2610" yWindow="2640" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Code Smells" sheetId="8" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -918,8 +912,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -929,6 +923,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -956,12 +958,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -994,7 +998,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BC1AD5-7A45-4A8A-949C-97B741A8E176}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BC1AD5-7A45-4A8A-949C-97B741A8E176}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,19 +1332,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43A618D-78EA-49A9-8234-7C33B19D7EFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:K248"/>
+  <dimension ref="A1:P248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,9 +1357,10 @@
     <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>291</v>
       </c>
@@ -1390,7 +1395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1425,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1460,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1495,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1530,7 +1535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1565,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1599,8 +1604,9 @@
       <c r="K7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1635,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1670,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1705,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1740,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1810,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1880,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2125,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2160,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2195,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2265,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2300,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2334,8 +2340,9 @@
       <c r="K28" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2370,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2405,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2440,7 +2447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -6395,7 +6402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6429,8 +6436,9 @@
       <c r="K145" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L145" s="1"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6465,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6500,7 +6508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -6535,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -6570,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -6605,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -6640,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -6675,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -6710,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -6745,7 +6753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -6780,7 +6788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -6815,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -6850,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -6885,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -6920,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7515,7 +7523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -7550,7 +7558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -7585,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -7620,7 +7628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -7655,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -7690,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -7725,7 +7733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -7760,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -7795,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -7830,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -7865,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -7899,8 +7907,9 @@
       <c r="K187" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L187" s="1"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -7935,7 +7944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -7970,7 +7979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8005,7 +8014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8040,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10037,7 +10046,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>